--- a/db_supermercado.xlsx
+++ b/db_supermercado.xlsx
@@ -8,13 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xav-j12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0190E170-7BAC-4959-B9DD-BAD1BDDE372D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E41E82B-E727-44B4-851E-1DAB68FB7002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{97DD950F-96E2-4B97-B3BD-DF46440A712E}"/>
   </bookViews>
   <sheets>
     <sheet name="ventas" sheetId="1" r:id="rId1"/>
+    <sheet name="vendedor" sheetId="2" r:id="rId2"/>
+    <sheet name="region" sheetId="3" r:id="rId3"/>
+    <sheet name="mes" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">region!$A$1:$A$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">vendedor!$A$1:$A$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">vendedor!$A$1:$A$7</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="40">
   <si>
     <t>Mes</t>
   </si>
@@ -46,15 +54,6 @@
   </si>
   <si>
     <t>Vendedor</t>
-  </si>
-  <si>
-    <t>Unidades</t>
-  </si>
-  <si>
-    <t>Ventas (en $)</t>
-  </si>
-  <si>
-    <t>Región</t>
   </si>
   <si>
     <t>Jul</t>
@@ -140,6 +139,30 @@
   <si>
     <t>Nov</t>
   </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Cant</t>
+  </si>
+  <si>
+    <t>Viveres</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Contar</t>
+  </si>
 </sst>
 </file>
 
@@ -148,7 +171,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +183,18 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -183,15 +218,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{385567CA-A40D-4706-8194-05E7B43A981C}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -202,6 +248,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A4806A9-7191-469A-B5CC-EA7C9FC0A9AF}" name="Tabla1" displayName="Tabla1" ref="A1:G1048576" totalsRowShown="0">
+  <autoFilter ref="A1:G1048576" xr:uid="{3A4806A9-7191-469A-B5CC-EA7C9FC0A9AF}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{21718F90-1EE2-400B-8CF4-0C698F12DA39}" name="Mes"/>
+    <tableColumn id="2" xr3:uid="{B4691662-50D2-46D9-B987-36E1E4DC0BBD}" name="Año" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{972744CA-B331-4A1C-B996-AFE4BE435658}" name="Producto"/>
+    <tableColumn id="4" xr3:uid="{D3AE089F-C35F-46AA-A569-E648DFBB62CD}" name="Vendedor"/>
+    <tableColumn id="5" xr3:uid="{DB5D274C-6A54-431B-9959-2F37ACBB35BE}" name="Cant" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{F67669AA-A0CE-499C-98BF-2B1DF48CE83C}" name="Total"/>
+    <tableColumn id="7" xr3:uid="{EB02DD32-3DE5-4D48-A5CC-12FE67BF614E}" name="Region"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,28 +563,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D73896-876D-4E2F-AA30-36383BB76670}">
-  <dimension ref="A1:G181"/>
+  <dimension ref="A1:M183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A191" sqref="A191"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="4"/>
+    <col min="10" max="10" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -532,4153 +597,4460 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>2009</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>3933</v>
       </c>
       <c r="F2" s="1">
         <v>16252665</v>
       </c>
       <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>2010</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>2998</v>
       </c>
       <c r="F3" s="1">
         <v>31939624</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>2008</v>
+        <v>12</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2018</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2">
         <v>2061</v>
       </c>
       <c r="F4" s="1">
         <v>20180744</v>
       </c>
       <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>2010</v>
+      <c r="B5" s="2">
+        <v>2020</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2">
         <v>4151</v>
       </c>
       <c r="F5" s="1">
         <v>10436592</v>
       </c>
       <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>2009</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>2211</v>
       </c>
       <c r="F6" s="1">
         <v>14885918</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>2009</v>
+        <v>16</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2">
         <v>2912</v>
       </c>
       <c r="F7" s="1">
         <v>17918813</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8">
-        <v>2008</v>
+        <v>20</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2018</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2">
         <v>4380</v>
       </c>
       <c r="F8" s="1">
         <v>8427590</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2008</v>
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2018</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2">
         <v>2696</v>
       </c>
       <c r="F9" s="1">
         <v>26234243</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10">
-        <v>2008</v>
+        <v>24</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2018</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
+        <v>23</v>
+      </c>
+      <c r="E10" s="2">
         <v>1759</v>
       </c>
       <c r="F10" s="1">
         <v>6478805</v>
       </c>
       <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11">
-        <v>2010</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
       <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
+        <v>23</v>
+      </c>
+      <c r="E11" s="2">
         <v>1302</v>
       </c>
       <c r="F11" s="1">
         <v>16000781</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12">
-        <v>2008</v>
+        <v>27</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2018</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
+        <v>23</v>
+      </c>
+      <c r="E12" s="2">
         <v>1413</v>
       </c>
       <c r="F12" s="1">
         <v>11747242</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>2009</v>
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2019</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2">
         <v>4030</v>
       </c>
       <c r="F13" s="1">
         <v>8654422</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>2009</v>
+        <v>4</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2019</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2">
         <v>3855</v>
       </c>
       <c r="F14" s="1">
         <v>26452658</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15">
-        <v>2009</v>
+        <v>24</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2019</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2">
         <v>984</v>
       </c>
       <c r="F15" s="1">
         <v>21702854</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>2010</v>
+        <v>12</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2020</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
+        <v>23</v>
+      </c>
+      <c r="E16" s="2">
         <v>3043</v>
       </c>
       <c r="F16" s="1">
         <v>20842073</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17">
-        <v>2009</v>
+        <v>8</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2019</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2">
         <v>1193</v>
       </c>
       <c r="F17" s="1">
         <v>30643074</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18">
-        <v>2008</v>
+        <v>28</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2018</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2">
         <v>1386</v>
       </c>
       <c r="F18" s="1">
         <v>13353392</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19">
-        <v>2008</v>
+        <v>20</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2018</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2">
         <v>1306</v>
       </c>
       <c r="F19" s="1">
         <v>5417604</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20">
-        <v>2010</v>
+        <v>24</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2020</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2">
         <v>4574</v>
       </c>
       <c r="F20" s="1">
         <v>23403699</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>2009</v>
+        <v>29</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2019</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2">
         <v>3061</v>
       </c>
       <c r="F21" s="1">
         <v>24939400</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22">
-        <v>2009</v>
+        <v>12</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2019</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22">
+        <v>18</v>
+      </c>
+      <c r="E22" s="2">
         <v>3403</v>
       </c>
       <c r="F22" s="1">
         <v>9790633</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23">
-        <v>2008</v>
+        <v>8</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2018</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2">
         <v>3781</v>
       </c>
       <c r="F23" s="1">
         <v>22925625</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24">
-        <v>2010</v>
+        <v>24</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2020</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2">
         <v>3577</v>
       </c>
       <c r="F24" s="1">
         <v>7474946</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>2009</v>
+        <v>20</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2019</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="E25" s="2">
         <v>4924</v>
       </c>
       <c r="F25" s="1">
         <v>12732093</v>
       </c>
       <c r="G25" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26">
-        <v>2008</v>
+        <v>30</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2018</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="E26" s="2">
         <v>4301</v>
       </c>
       <c r="F26" s="1">
         <v>21478628</v>
       </c>
       <c r="G26" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27">
-        <v>2008</v>
+        <v>8</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2018</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="E27" s="2">
         <v>2798</v>
       </c>
       <c r="F27" s="1">
         <v>21411284</v>
       </c>
       <c r="G27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>2009</v>
+        <v>24</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2019</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
+        <v>18</v>
+      </c>
+      <c r="E28" s="2">
         <v>1829</v>
       </c>
       <c r="F28" s="1">
         <v>24143127</v>
       </c>
       <c r="G28" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>2010</v>
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2020</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29">
+        <v>18</v>
+      </c>
+      <c r="E29" s="2">
         <v>1088</v>
       </c>
       <c r="F29" s="1">
         <v>18194098</v>
       </c>
       <c r="G29" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>2009</v>
+        <v>27</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2019</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="E30" s="2">
         <v>4295</v>
       </c>
       <c r="F30" s="1">
         <v>16927126</v>
       </c>
       <c r="G30" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31">
-        <v>2008</v>
+        <v>14</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2018</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31">
+        <v>23</v>
+      </c>
+      <c r="E31" s="2">
         <v>1262</v>
       </c>
       <c r="F31" s="1">
         <v>9325822</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32">
-        <v>2010</v>
+        <v>8</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2020</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32">
+        <v>23</v>
+      </c>
+      <c r="E32" s="2">
         <v>1708</v>
       </c>
       <c r="F32" s="1">
         <v>7740822</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33">
-        <v>2010</v>
+        <v>16</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2020</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
+        <v>18</v>
+      </c>
+      <c r="E33" s="2">
         <v>3663</v>
       </c>
       <c r="F33" s="1">
         <v>29592962</v>
       </c>
       <c r="G33" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>2008</v>
+        <v>30</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2018</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="E34" s="2">
         <v>3562</v>
       </c>
       <c r="F34" s="1">
         <v>9309943</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>30</v>
-      </c>
-      <c r="B35">
-        <v>2010</v>
+        <v>27</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2020</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35">
+        <v>18</v>
+      </c>
+      <c r="E35" s="2">
         <v>1663</v>
       </c>
       <c r="F35" s="1">
         <v>30051572</v>
       </c>
       <c r="G35" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36">
-        <v>2010</v>
+        <v>28</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2020</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36">
+        <v>23</v>
+      </c>
+      <c r="E36" s="2">
         <v>4859</v>
       </c>
       <c r="F36" s="1">
         <v>23269797</v>
       </c>
       <c r="G36" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37">
-        <v>2009</v>
+        <v>16</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2019</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="E37" s="2">
         <v>3501</v>
       </c>
       <c r="F37" s="1">
         <v>11003834</v>
       </c>
       <c r="G37" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38">
-        <v>2009</v>
+        <v>28</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2019</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38">
+        <v>15</v>
+      </c>
+      <c r="E38" s="2">
         <v>2047</v>
       </c>
       <c r="F38" s="1">
         <v>8310230</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39">
-        <v>2010</v>
+        <v>16</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2020</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39">
+        <v>23</v>
+      </c>
+      <c r="E39" s="2">
         <v>1379</v>
       </c>
       <c r="F39" s="1">
         <v>12801434</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40">
-        <v>2009</v>
+        <v>24</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2019</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40">
+        <v>23</v>
+      </c>
+      <c r="E40" s="2">
         <v>995</v>
       </c>
       <c r="F40" s="1">
         <v>8718052</v>
       </c>
       <c r="G40" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41">
-        <v>2008</v>
+        <v>12</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2018</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41">
+        <v>18</v>
+      </c>
+      <c r="E41" s="2">
         <v>4991</v>
       </c>
       <c r="F41" s="1">
         <v>7707689</v>
       </c>
       <c r="G41" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42">
-        <v>2009</v>
+        <v>31</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2019</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="E42" s="2">
         <v>4701</v>
       </c>
       <c r="F42" s="1">
         <v>26261678</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43">
-        <v>2009</v>
+        <v>27</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2019</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43">
+        <v>18</v>
+      </c>
+      <c r="E43" s="2">
         <v>1137</v>
       </c>
       <c r="F43" s="1">
         <v>5147572</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44">
-        <v>2010</v>
+        <v>4</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2020</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44">
+        <v>23</v>
+      </c>
+      <c r="E44" s="2">
         <v>3867</v>
       </c>
       <c r="F44" s="1">
         <v>18659009</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s">
         <v>23</v>
       </c>
-      <c r="B45">
-        <v>2010</v>
-      </c>
-      <c r="C45" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45">
+      <c r="E45" s="2">
         <v>3187</v>
       </c>
       <c r="F45" s="1">
         <v>9831454</v>
       </c>
       <c r="G45" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46">
-        <v>2008</v>
+        <v>16</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2018</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46">
+        <v>10</v>
+      </c>
+      <c r="E46" s="2">
         <v>2636</v>
       </c>
       <c r="F46" s="1">
         <v>11433092</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47">
-        <v>2008</v>
+        <v>8</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2018</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47">
+        <v>18</v>
+      </c>
+      <c r="E47" s="2">
         <v>3035</v>
       </c>
       <c r="F47" s="1">
         <v>18264416</v>
       </c>
       <c r="G47" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B48">
-        <v>2008</v>
+        <v>30</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2018</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48">
+        <v>18</v>
+      </c>
+      <c r="E48" s="2">
         <v>2455</v>
       </c>
       <c r="F48" s="1">
         <v>26417450</v>
       </c>
       <c r="G48" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49">
-        <v>2008</v>
+        <v>20</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2018</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49">
+        <v>10</v>
+      </c>
+      <c r="E49" s="2">
         <v>2341</v>
       </c>
       <c r="F49" s="1">
         <v>31075727</v>
       </c>
       <c r="G49" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50">
-        <v>2010</v>
+        <v>28</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2020</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="E50" s="2">
         <v>4363</v>
       </c>
       <c r="F50" s="1">
         <v>26787710</v>
       </c>
       <c r="G50" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51">
-        <v>2009</v>
+        <v>8</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2019</v>
       </c>
       <c r="C51" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D51" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51">
+        <v>18</v>
+      </c>
+      <c r="E51" s="2">
         <v>3641</v>
       </c>
       <c r="F51" s="1">
         <v>22334665</v>
       </c>
       <c r="G51" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52">
-        <v>2009</v>
+        <v>24</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2019</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52">
+        <v>23</v>
+      </c>
+      <c r="E52" s="2">
         <v>2145</v>
       </c>
       <c r="F52" s="1">
         <v>14358111</v>
       </c>
       <c r="G52" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53">
-        <v>2009</v>
+        <v>30</v>
+      </c>
+      <c r="B53" s="2">
+        <v>2019</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53">
+        <v>18</v>
+      </c>
+      <c r="E53" s="2">
         <v>1146</v>
       </c>
       <c r="F53" s="1">
         <v>26212472</v>
       </c>
       <c r="G53" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
         <v>15</v>
       </c>
-      <c r="B54">
-        <v>2010</v>
-      </c>
-      <c r="C54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54">
+      <c r="E54" s="2">
         <v>2131</v>
       </c>
       <c r="F54" s="1">
         <v>25501630</v>
       </c>
       <c r="G54" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>33</v>
-      </c>
-      <c r="B55">
-        <v>2010</v>
+        <v>30</v>
+      </c>
+      <c r="B55" s="2">
+        <v>2020</v>
       </c>
       <c r="C55" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D55" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55">
+        <v>18</v>
+      </c>
+      <c r="E55" s="2">
         <v>1908</v>
       </c>
       <c r="F55" s="1">
         <v>8811970</v>
       </c>
       <c r="G55" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>30</v>
-      </c>
-      <c r="B56">
-        <v>2010</v>
+        <v>27</v>
+      </c>
+      <c r="B56" s="2">
+        <v>2020</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D56" t="s">
-        <v>21</v>
-      </c>
-      <c r="E56">
+        <v>18</v>
+      </c>
+      <c r="E56" s="2">
         <v>3311</v>
       </c>
       <c r="F56" s="1">
         <v>30558635</v>
       </c>
       <c r="G56" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>33</v>
-      </c>
-      <c r="B57">
-        <v>2010</v>
+        <v>30</v>
+      </c>
+      <c r="B57" s="2">
+        <v>2020</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57">
+        <v>6</v>
+      </c>
+      <c r="E57" s="2">
         <v>2072</v>
       </c>
       <c r="F57" s="1">
         <v>20187167</v>
       </c>
       <c r="G57" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>31</v>
-      </c>
-      <c r="B58">
-        <v>2008</v>
+        <v>28</v>
+      </c>
+      <c r="B58" s="2">
+        <v>2018</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58">
+        <v>10</v>
+      </c>
+      <c r="E58" s="2">
         <v>3207</v>
       </c>
       <c r="F58" s="1">
         <v>26670251</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59">
-        <v>2009</v>
+        <v>24</v>
+      </c>
+      <c r="B59" s="2">
+        <v>2019</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59">
+        <v>15</v>
+      </c>
+      <c r="E59" s="2">
         <v>3309</v>
       </c>
       <c r="F59" s="1">
         <v>12097081</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C60" t="s">
         <v>17</v>
       </c>
-      <c r="B60">
-        <v>2010</v>
-      </c>
-      <c r="C60" t="s">
-        <v>20</v>
-      </c>
       <c r="D60" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60">
+        <v>6</v>
+      </c>
+      <c r="E60" s="2">
         <v>4153</v>
       </c>
       <c r="F60" s="1">
         <v>24478544</v>
       </c>
       <c r="G60" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>17</v>
-      </c>
-      <c r="B61">
-        <v>2009</v>
+        <v>14</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2019</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D61" t="s">
-        <v>26</v>
-      </c>
-      <c r="E61">
+        <v>23</v>
+      </c>
+      <c r="E61" s="2">
         <v>2341</v>
       </c>
       <c r="F61" s="1">
         <v>6385654</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62">
-        <v>2008</v>
+        <v>4</v>
+      </c>
+      <c r="B62" s="2">
+        <v>2018</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>21</v>
-      </c>
-      <c r="E62">
+        <v>18</v>
+      </c>
+      <c r="E62" s="2">
         <v>2291</v>
       </c>
       <c r="F62" s="1">
         <v>16130387</v>
       </c>
       <c r="G62" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>34</v>
-      </c>
-      <c r="B63">
-        <v>2008</v>
+        <v>31</v>
+      </c>
+      <c r="B63" s="2">
+        <v>2018</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>21</v>
-      </c>
-      <c r="E63">
+        <v>18</v>
+      </c>
+      <c r="E63" s="2">
         <v>4638</v>
       </c>
       <c r="F63" s="1">
         <v>21936584</v>
       </c>
       <c r="G63" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>34</v>
-      </c>
-      <c r="B64">
-        <v>2009</v>
+        <v>31</v>
+      </c>
+      <c r="B64" s="2">
+        <v>2019</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64">
+        <v>15</v>
+      </c>
+      <c r="E64" s="2">
         <v>3000</v>
       </c>
       <c r="F64" s="1">
         <v>6264677</v>
       </c>
       <c r="G64" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>30</v>
-      </c>
-      <c r="B65">
-        <v>2010</v>
+        <v>27</v>
+      </c>
+      <c r="B65" s="2">
+        <v>2020</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65">
+        <v>15</v>
+      </c>
+      <c r="E65" s="2">
         <v>933</v>
       </c>
       <c r="F65" s="1">
         <v>17785852</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>15</v>
-      </c>
-      <c r="B66">
-        <v>2010</v>
+        <v>12</v>
+      </c>
+      <c r="B66" s="2">
+        <v>2020</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66">
+        <v>6</v>
+      </c>
+      <c r="E66" s="2">
         <v>2918</v>
       </c>
       <c r="F66" s="1">
         <v>18209808</v>
       </c>
       <c r="G66" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>19</v>
-      </c>
-      <c r="B67">
-        <v>2010</v>
+        <v>16</v>
+      </c>
+      <c r="B67" s="2">
+        <v>2020</v>
       </c>
       <c r="C67" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67">
+        <v>10</v>
+      </c>
+      <c r="E67" s="2">
         <v>3759</v>
       </c>
       <c r="F67" s="1">
         <v>9168379</v>
       </c>
       <c r="G67" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
         <v>15</v>
       </c>
-      <c r="B68">
-        <v>2009</v>
-      </c>
-      <c r="C68" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68">
+      <c r="E68" s="2">
         <v>981</v>
       </c>
       <c r="F68" s="1">
         <v>25986138</v>
       </c>
       <c r="G68" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69">
-        <v>2010</v>
+        <v>8</v>
+      </c>
+      <c r="B69" s="2">
+        <v>2020</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69">
+        <v>6</v>
+      </c>
+      <c r="E69" s="2">
         <v>4242</v>
       </c>
       <c r="F69" s="1">
         <v>7839347</v>
       </c>
       <c r="G69" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>27</v>
-      </c>
-      <c r="B70">
-        <v>2008</v>
+        <v>24</v>
+      </c>
+      <c r="B70" s="2">
+        <v>2018</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>21</v>
-      </c>
-      <c r="E70">
+        <v>18</v>
+      </c>
+      <c r="E70" s="2">
         <v>3055</v>
       </c>
       <c r="F70" s="1">
         <v>7878480</v>
       </c>
       <c r="G70" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>27</v>
-      </c>
-      <c r="B71">
-        <v>2010</v>
+        <v>24</v>
+      </c>
+      <c r="B71" s="2">
+        <v>2020</v>
       </c>
       <c r="C71" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71">
+        <v>6</v>
+      </c>
+      <c r="E71" s="2">
         <v>4271</v>
       </c>
       <c r="F71" s="1">
         <v>22379055</v>
       </c>
       <c r="G71" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>34</v>
-      </c>
-      <c r="B72">
-        <v>2010</v>
+        <v>31</v>
+      </c>
+      <c r="B72" s="2">
+        <v>2020</v>
       </c>
       <c r="C72" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D72" t="s">
-        <v>21</v>
-      </c>
-      <c r="E72">
+        <v>18</v>
+      </c>
+      <c r="E72" s="2">
         <v>1398</v>
       </c>
       <c r="F72" s="1">
         <v>19471883</v>
       </c>
       <c r="G72" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>30</v>
-      </c>
-      <c r="B73">
-        <v>2009</v>
+        <v>27</v>
+      </c>
+      <c r="B73" s="2">
+        <v>2019</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
-      </c>
-      <c r="E73">
+        <v>13</v>
+      </c>
+      <c r="E73" s="2">
         <v>4836</v>
       </c>
       <c r="F73" s="1">
         <v>15867065</v>
       </c>
       <c r="G73" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>32</v>
-      </c>
-      <c r="B74">
-        <v>2010</v>
+        <v>29</v>
+      </c>
+      <c r="B74" s="2">
+        <v>2020</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D74" t="s">
-        <v>26</v>
-      </c>
-      <c r="E74">
+        <v>23</v>
+      </c>
+      <c r="E74" s="2">
         <v>2734</v>
       </c>
       <c r="F74" s="1">
         <v>16356155</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75">
-        <v>2010</v>
+        <v>4</v>
+      </c>
+      <c r="B75" s="2">
+        <v>2020</v>
       </c>
       <c r="C75" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D75" t="s">
-        <v>21</v>
-      </c>
-      <c r="E75">
+        <v>18</v>
+      </c>
+      <c r="E75" s="2">
         <v>2507</v>
       </c>
       <c r="F75" s="1">
         <v>19832348</v>
       </c>
       <c r="G75" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>31</v>
-      </c>
-      <c r="B76">
-        <v>2010</v>
+        <v>28</v>
+      </c>
+      <c r="B76" s="2">
+        <v>2020</v>
       </c>
       <c r="C76" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D76" t="s">
-        <v>21</v>
-      </c>
-      <c r="E76">
+        <v>18</v>
+      </c>
+      <c r="E76" s="2">
         <v>3669</v>
       </c>
       <c r="F76" s="1">
         <v>23375718</v>
       </c>
       <c r="G76" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>32</v>
-      </c>
-      <c r="B77">
-        <v>2008</v>
+        <v>29</v>
+      </c>
+      <c r="B77" s="2">
+        <v>2018</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77">
+        <v>6</v>
+      </c>
+      <c r="E77" s="2">
         <v>3261</v>
       </c>
       <c r="F77" s="1">
         <v>15535130</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>19</v>
-      </c>
-      <c r="B78">
-        <v>2010</v>
+        <v>16</v>
+      </c>
+      <c r="B78" s="2">
+        <v>2020</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78">
+        <v>6</v>
+      </c>
+      <c r="E78" s="2">
         <v>3338</v>
       </c>
       <c r="F78" s="1">
         <v>30817683</v>
       </c>
       <c r="G78" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79">
-        <v>2009</v>
+        <v>4</v>
+      </c>
+      <c r="B79" s="2">
+        <v>2019</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D79" t="s">
-        <v>21</v>
-      </c>
-      <c r="E79">
+        <v>18</v>
+      </c>
+      <c r="E79" s="2">
         <v>2310</v>
       </c>
       <c r="F79" s="1">
         <v>25516215</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>34</v>
-      </c>
-      <c r="B80">
-        <v>2010</v>
+        <v>31</v>
+      </c>
+      <c r="B80" s="2">
+        <v>2020</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D80" t="s">
-        <v>26</v>
-      </c>
-      <c r="E80">
+        <v>23</v>
+      </c>
+      <c r="E80" s="2">
         <v>3365</v>
       </c>
       <c r="F80" s="1">
         <v>19324281</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>19</v>
-      </c>
-      <c r="B81">
-        <v>2009</v>
+        <v>16</v>
+      </c>
+      <c r="B81" s="2">
+        <v>2019</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>26</v>
-      </c>
-      <c r="E81">
+        <v>23</v>
+      </c>
+      <c r="E81" s="2">
         <v>2102</v>
       </c>
       <c r="F81" s="1">
         <v>6364343</v>
       </c>
       <c r="G81" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>32</v>
-      </c>
-      <c r="B82">
-        <v>2008</v>
+        <v>29</v>
+      </c>
+      <c r="B82" s="2">
+        <v>2018</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82">
+        <v>6</v>
+      </c>
+      <c r="E82" s="2">
         <v>3893</v>
       </c>
       <c r="F82" s="1">
         <v>15513284</v>
       </c>
       <c r="G82" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>15</v>
-      </c>
-      <c r="B83">
-        <v>2008</v>
+        <v>12</v>
+      </c>
+      <c r="B83" s="2">
+        <v>2018</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D83" t="s">
-        <v>26</v>
-      </c>
-      <c r="E83">
+        <v>23</v>
+      </c>
+      <c r="E83" s="2">
         <v>3399</v>
       </c>
       <c r="F83" s="1">
         <v>23606354</v>
       </c>
       <c r="G83" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>7</v>
-      </c>
-      <c r="B84">
-        <v>2010</v>
+        <v>4</v>
+      </c>
+      <c r="B84" s="2">
+        <v>2020</v>
       </c>
       <c r="C84" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>13</v>
-      </c>
-      <c r="E84">
+        <v>10</v>
+      </c>
+      <c r="E84" s="2">
         <v>3439</v>
       </c>
       <c r="F84" s="1">
         <v>30486465</v>
       </c>
       <c r="G84" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>17</v>
-      </c>
-      <c r="B85">
-        <v>2008</v>
+        <v>14</v>
+      </c>
+      <c r="B85" s="2">
+        <v>2018</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85">
+        <v>10</v>
+      </c>
+      <c r="E85" s="2">
         <v>4058</v>
       </c>
       <c r="F85" s="1">
         <v>30435593</v>
       </c>
       <c r="G85" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>19</v>
-      </c>
-      <c r="B86">
-        <v>2009</v>
+        <v>16</v>
+      </c>
+      <c r="B86" s="2">
+        <v>2019</v>
       </c>
       <c r="C86" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
-      </c>
-      <c r="E86">
+        <v>13</v>
+      </c>
+      <c r="E86" s="2">
         <v>1127</v>
       </c>
       <c r="F86" s="1">
         <v>13363854</v>
       </c>
       <c r="G86" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>33</v>
-      </c>
-      <c r="B87">
-        <v>2009</v>
+        <v>30</v>
+      </c>
+      <c r="B87" s="2">
+        <v>2019</v>
       </c>
       <c r="C87" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D87" t="s">
-        <v>21</v>
-      </c>
-      <c r="E87">
+        <v>18</v>
+      </c>
+      <c r="E87" s="2">
         <v>4150</v>
       </c>
       <c r="F87" s="1">
         <v>26091699</v>
       </c>
       <c r="G87" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>31</v>
-      </c>
-      <c r="B88">
-        <v>2008</v>
+        <v>28</v>
+      </c>
+      <c r="B88" s="2">
+        <v>2018</v>
       </c>
       <c r="C88" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88">
+        <v>6</v>
+      </c>
+      <c r="E88" s="2">
         <v>928</v>
       </c>
       <c r="F88" s="1">
         <v>20233647</v>
       </c>
       <c r="G88" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" t="s">
         <v>23</v>
       </c>
-      <c r="B89">
-        <v>2010</v>
-      </c>
-      <c r="C89" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" t="s">
-        <v>26</v>
-      </c>
-      <c r="E89">
+      <c r="E89" s="2">
         <v>4169</v>
       </c>
       <c r="F89" s="1">
         <v>21416077</v>
       </c>
       <c r="G89" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>19</v>
-      </c>
-      <c r="B90">
-        <v>2008</v>
+        <v>16</v>
+      </c>
+      <c r="B90" s="2">
+        <v>2018</v>
       </c>
       <c r="C90" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
-      </c>
-      <c r="E90">
+        <v>10</v>
+      </c>
+      <c r="E90" s="2">
         <v>4754</v>
       </c>
       <c r="F90" s="1">
         <v>20896240</v>
       </c>
       <c r="G90" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>33</v>
-      </c>
-      <c r="B91">
-        <v>2010</v>
+        <v>30</v>
+      </c>
+      <c r="B91" s="2">
+        <v>2020</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
-      </c>
-      <c r="E91">
+        <v>13</v>
+      </c>
+      <c r="E91" s="2">
         <v>2030</v>
       </c>
       <c r="F91" s="1">
         <v>26065419</v>
       </c>
       <c r="G91" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>17</v>
-      </c>
-      <c r="B92">
-        <v>2010</v>
+        <v>14</v>
+      </c>
+      <c r="B92" s="2">
+        <v>2020</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D92" t="s">
-        <v>26</v>
-      </c>
-      <c r="E92">
+        <v>23</v>
+      </c>
+      <c r="E92" s="2">
         <v>1996</v>
       </c>
       <c r="F92" s="1">
         <v>23079163</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C93" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" t="s">
         <v>23</v>
       </c>
-      <c r="B93">
-        <v>2009</v>
-      </c>
-      <c r="C93" t="s">
-        <v>28</v>
-      </c>
-      <c r="D93" t="s">
-        <v>26</v>
-      </c>
-      <c r="E93">
+      <c r="E93" s="2">
         <v>983</v>
       </c>
       <c r="F93" s="1">
         <v>29014564</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>27</v>
-      </c>
-      <c r="B94">
-        <v>2010</v>
+        <v>24</v>
+      </c>
+      <c r="B94" s="2">
+        <v>2020</v>
       </c>
       <c r="C94" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D94" t="s">
-        <v>13</v>
-      </c>
-      <c r="E94">
+        <v>10</v>
+      </c>
+      <c r="E94" s="2">
         <v>2109</v>
       </c>
       <c r="F94" s="1">
         <v>15430177</v>
       </c>
       <c r="G94" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>11</v>
-      </c>
-      <c r="B95">
-        <v>2008</v>
+        <v>8</v>
+      </c>
+      <c r="B95" s="2">
+        <v>2018</v>
       </c>
       <c r="C95" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>26</v>
-      </c>
-      <c r="E95">
+        <v>23</v>
+      </c>
+      <c r="E95" s="2">
         <v>2619</v>
       </c>
       <c r="F95" s="1">
         <v>5540308</v>
       </c>
       <c r="G95" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>7</v>
-      </c>
-      <c r="B96">
-        <v>2010</v>
+        <v>4</v>
+      </c>
+      <c r="B96" s="2">
+        <v>2020</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D96" t="s">
-        <v>18</v>
-      </c>
-      <c r="E96">
+        <v>15</v>
+      </c>
+      <c r="E96" s="2">
         <v>3508</v>
       </c>
       <c r="F96" s="1">
         <v>14196849</v>
       </c>
       <c r="G96" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>34</v>
-      </c>
-      <c r="B97">
-        <v>2009</v>
+        <v>31</v>
+      </c>
+      <c r="B97" s="2">
+        <v>2019</v>
       </c>
       <c r="C97" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
-      </c>
-      <c r="E97">
+        <v>13</v>
+      </c>
+      <c r="E97" s="2">
         <v>2096</v>
       </c>
       <c r="F97" s="1">
         <v>31378227</v>
       </c>
       <c r="G97" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>19</v>
-      </c>
-      <c r="B98">
-        <v>2008</v>
+        <v>16</v>
+      </c>
+      <c r="B98" s="2">
+        <v>2018</v>
       </c>
       <c r="C98" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
-      </c>
-      <c r="E98">
+        <v>15</v>
+      </c>
+      <c r="E98" s="2">
         <v>2537</v>
       </c>
       <c r="F98" s="1">
         <v>13677001</v>
       </c>
       <c r="G98" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>30</v>
-      </c>
-      <c r="B99">
-        <v>2008</v>
+        <v>27</v>
+      </c>
+      <c r="B99" s="2">
+        <v>2018</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D99" t="s">
-        <v>18</v>
-      </c>
-      <c r="E99">
+        <v>15</v>
+      </c>
+      <c r="E99" s="2">
         <v>1055</v>
       </c>
       <c r="F99" s="1">
         <v>5090135</v>
       </c>
       <c r="G99" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>31</v>
-      </c>
-      <c r="B100">
-        <v>2008</v>
+        <v>28</v>
+      </c>
+      <c r="B100" s="2">
+        <v>2018</v>
       </c>
       <c r="C100" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D100" t="s">
-        <v>21</v>
-      </c>
-      <c r="E100">
+        <v>18</v>
+      </c>
+      <c r="E100" s="2">
         <v>3671</v>
       </c>
       <c r="F100" s="1">
         <v>23367335</v>
       </c>
       <c r="G100" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>34</v>
-      </c>
-      <c r="B101">
-        <v>2010</v>
+        <v>31</v>
+      </c>
+      <c r="B101" s="2">
+        <v>2020</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
-      </c>
-      <c r="E101">
+        <v>13</v>
+      </c>
+      <c r="E101" s="2">
         <v>951</v>
       </c>
       <c r="F101" s="1">
         <v>11066989</v>
       </c>
       <c r="G101" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>17</v>
-      </c>
-      <c r="B102">
-        <v>2009</v>
+        <v>14</v>
+      </c>
+      <c r="B102" s="2">
+        <v>2019</v>
       </c>
       <c r="C102" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D102" t="s">
-        <v>18</v>
-      </c>
-      <c r="E102">
+        <v>15</v>
+      </c>
+      <c r="E102" s="2">
         <v>2413</v>
       </c>
       <c r="F102" s="1">
         <v>11217929</v>
       </c>
       <c r="G102" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>34</v>
-      </c>
-      <c r="B103">
-        <v>2010</v>
+        <v>31</v>
+      </c>
+      <c r="B103" s="2">
+        <v>2020</v>
       </c>
       <c r="C103" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
-      </c>
-      <c r="E103">
+        <v>6</v>
+      </c>
+      <c r="E103" s="2">
         <v>2018</v>
       </c>
       <c r="F103" s="1">
         <v>5608677</v>
       </c>
       <c r="G103" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>17</v>
-      </c>
-      <c r="B104">
-        <v>2009</v>
+        <v>14</v>
+      </c>
+      <c r="B104" s="2">
+        <v>2019</v>
       </c>
       <c r="C104" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>13</v>
-      </c>
-      <c r="E104">
+        <v>10</v>
+      </c>
+      <c r="E104" s="2">
         <v>1292</v>
       </c>
       <c r="F104" s="1">
         <v>17359884</v>
       </c>
       <c r="G104" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>30</v>
-      </c>
-      <c r="B105">
-        <v>2008</v>
+        <v>27</v>
+      </c>
+      <c r="B105" s="2">
+        <v>2018</v>
       </c>
       <c r="C105" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
-      </c>
-      <c r="E105">
+        <v>6</v>
+      </c>
+      <c r="E105" s="2">
         <v>3684</v>
       </c>
       <c r="F105" s="1">
         <v>31929296</v>
       </c>
       <c r="G105" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>19</v>
-      </c>
-      <c r="B106">
-        <v>2008</v>
+        <v>16</v>
+      </c>
+      <c r="B106" s="2">
+        <v>2018</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D106" t="s">
-        <v>26</v>
-      </c>
-      <c r="E106">
+        <v>23</v>
+      </c>
+      <c r="E106" s="2">
         <v>3452</v>
       </c>
       <c r="F106" s="1">
         <v>19813786</v>
       </c>
       <c r="G106" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>27</v>
-      </c>
-      <c r="B107">
-        <v>2008</v>
+        <v>24</v>
+      </c>
+      <c r="B107" s="2">
+        <v>2018</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D107" t="s">
-        <v>13</v>
-      </c>
-      <c r="E107">
+        <v>10</v>
+      </c>
+      <c r="E107" s="2">
         <v>2815</v>
       </c>
       <c r="F107" s="1">
         <v>16917541</v>
       </c>
       <c r="G107" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>15</v>
-      </c>
-      <c r="B108">
-        <v>2009</v>
+        <v>12</v>
+      </c>
+      <c r="B108" s="2">
+        <v>2019</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D108" t="s">
-        <v>21</v>
-      </c>
-      <c r="E108">
+        <v>18</v>
+      </c>
+      <c r="E108" s="2">
         <v>2260</v>
       </c>
       <c r="F108" s="1">
         <v>5126450</v>
       </c>
       <c r="G108" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>11</v>
-      </c>
-      <c r="B109">
-        <v>2010</v>
+        <v>8</v>
+      </c>
+      <c r="B109" s="2">
+        <v>2020</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D109" t="s">
-        <v>18</v>
-      </c>
-      <c r="E109">
+        <v>15</v>
+      </c>
+      <c r="E109" s="2">
         <v>1308</v>
       </c>
       <c r="F109" s="1">
         <v>13992377</v>
       </c>
       <c r="G109" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>7</v>
-      </c>
-      <c r="B110">
-        <v>2008</v>
+        <v>4</v>
+      </c>
+      <c r="B110" s="2">
+        <v>2018</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D110" t="s">
-        <v>16</v>
-      </c>
-      <c r="E110">
+        <v>13</v>
+      </c>
+      <c r="E110" s="2">
         <v>4125</v>
       </c>
       <c r="F110" s="1">
         <v>6788991</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C111" t="s">
         <v>17</v>
       </c>
-      <c r="B111">
-        <v>2009</v>
-      </c>
-      <c r="C111" t="s">
-        <v>20</v>
-      </c>
       <c r="D111" t="s">
-        <v>26</v>
-      </c>
-      <c r="E111">
+        <v>23</v>
+      </c>
+      <c r="E111" s="2">
         <v>3695</v>
       </c>
       <c r="F111" s="1">
         <v>26752434</v>
       </c>
       <c r="G111" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>11</v>
-      </c>
-      <c r="B112">
-        <v>2009</v>
+        <v>8</v>
+      </c>
+      <c r="B112" s="2">
+        <v>2019</v>
       </c>
       <c r="C112" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D112" t="s">
-        <v>13</v>
-      </c>
-      <c r="E112">
+        <v>10</v>
+      </c>
+      <c r="E112" s="2">
         <v>2650</v>
       </c>
       <c r="F112" s="1">
         <v>30372259</v>
       </c>
       <c r="G112" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>19</v>
-      </c>
-      <c r="B113">
-        <v>2008</v>
+        <v>16</v>
+      </c>
+      <c r="B113" s="2">
+        <v>2018</v>
       </c>
       <c r="C113" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D113" t="s">
-        <v>26</v>
-      </c>
-      <c r="E113">
+        <v>23</v>
+      </c>
+      <c r="E113" s="2">
         <v>3696</v>
       </c>
       <c r="F113" s="1">
         <v>10106212</v>
       </c>
       <c r="G113" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>23</v>
-      </c>
-      <c r="B114">
-        <v>2009</v>
+        <v>20</v>
+      </c>
+      <c r="B114" s="2">
+        <v>2019</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D114" t="s">
-        <v>13</v>
-      </c>
-      <c r="E114">
+        <v>10</v>
+      </c>
+      <c r="E114" s="2">
         <v>3385</v>
       </c>
       <c r="F114" s="1">
         <v>23594558</v>
       </c>
       <c r="G114" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>17</v>
-      </c>
-      <c r="B115">
-        <v>2008</v>
+        <v>14</v>
+      </c>
+      <c r="B115" s="2">
+        <v>2018</v>
       </c>
       <c r="C115" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D115" t="s">
-        <v>21</v>
-      </c>
-      <c r="E115">
+        <v>18</v>
+      </c>
+      <c r="E115" s="2">
         <v>2607</v>
       </c>
       <c r="F115" s="1">
         <v>6428849</v>
       </c>
       <c r="G115" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>23</v>
-      </c>
-      <c r="B116">
-        <v>2010</v>
+        <v>20</v>
+      </c>
+      <c r="B116" s="2">
+        <v>2020</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D116" t="s">
-        <v>18</v>
-      </c>
-      <c r="E116">
+        <v>15</v>
+      </c>
+      <c r="E116" s="2">
         <v>3454</v>
       </c>
       <c r="F116" s="1">
         <v>5855114</v>
       </c>
       <c r="G116" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>19</v>
-      </c>
-      <c r="B117">
-        <v>2010</v>
+        <v>16</v>
+      </c>
+      <c r="B117" s="2">
+        <v>2020</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D117" t="s">
-        <v>18</v>
-      </c>
-      <c r="E117">
+        <v>15</v>
+      </c>
+      <c r="E117" s="2">
         <v>1026</v>
       </c>
       <c r="F117" s="1">
         <v>23182580</v>
       </c>
       <c r="G117" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>7</v>
-      </c>
-      <c r="B118">
-        <v>2009</v>
+        <v>4</v>
+      </c>
+      <c r="B118" s="2">
+        <v>2019</v>
       </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D118" t="s">
-        <v>26</v>
-      </c>
-      <c r="E118">
+        <v>23</v>
+      </c>
+      <c r="E118" s="2">
         <v>4538</v>
       </c>
       <c r="F118" s="1">
         <v>12131878</v>
       </c>
       <c r="G118" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>17</v>
-      </c>
-      <c r="B119">
-        <v>2010</v>
+        <v>14</v>
+      </c>
+      <c r="B119" s="2">
+        <v>2020</v>
       </c>
       <c r="C119" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>13</v>
-      </c>
-      <c r="E119">
+        <v>10</v>
+      </c>
+      <c r="E119" s="2">
         <v>2634</v>
       </c>
       <c r="F119" s="1">
         <v>14483060</v>
       </c>
       <c r="G119" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>32</v>
-      </c>
-      <c r="B120">
-        <v>2009</v>
+        <v>29</v>
+      </c>
+      <c r="B120" s="2">
+        <v>2019</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
-      </c>
-      <c r="E120">
+        <v>6</v>
+      </c>
+      <c r="E120" s="2">
         <v>4983</v>
       </c>
       <c r="F120" s="1">
         <v>18114279</v>
       </c>
       <c r="G120" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>15</v>
-      </c>
-      <c r="B121">
-        <v>2009</v>
+        <v>12</v>
+      </c>
+      <c r="B121" s="2">
+        <v>2019</v>
       </c>
       <c r="C121" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D121" t="s">
-        <v>16</v>
-      </c>
-      <c r="E121">
+        <v>13</v>
+      </c>
+      <c r="E121" s="2">
         <v>2133</v>
       </c>
       <c r="F121" s="1">
         <v>24566041</v>
       </c>
       <c r="G121" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>34</v>
-      </c>
-      <c r="B122">
-        <v>2010</v>
+        <v>31</v>
+      </c>
+      <c r="B122" s="2">
+        <v>2020</v>
       </c>
       <c r="C122" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>13</v>
-      </c>
-      <c r="E122">
+        <v>10</v>
+      </c>
+      <c r="E122" s="2">
         <v>4066</v>
       </c>
       <c r="F122" s="1">
         <v>21530703</v>
       </c>
       <c r="G122" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>23</v>
-      </c>
-      <c r="B123">
-        <v>2008</v>
+        <v>20</v>
+      </c>
+      <c r="B123" s="2">
+        <v>2018</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D123" t="s">
-        <v>21</v>
-      </c>
-      <c r="E123">
+        <v>18</v>
+      </c>
+      <c r="E123" s="2">
         <v>3750</v>
       </c>
       <c r="F123" s="1">
         <v>24348714</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>31</v>
-      </c>
-      <c r="B124">
-        <v>2009</v>
+        <v>28</v>
+      </c>
+      <c r="B124" s="2">
+        <v>2019</v>
       </c>
       <c r="C124" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D124" t="s">
-        <v>13</v>
-      </c>
-      <c r="E124">
+        <v>10</v>
+      </c>
+      <c r="E124" s="2">
         <v>1116</v>
       </c>
       <c r="F124" s="1">
         <v>12483245</v>
       </c>
       <c r="G124" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>31</v>
-      </c>
-      <c r="B125">
-        <v>2008</v>
+        <v>28</v>
+      </c>
+      <c r="B125" s="2">
+        <v>2018</v>
       </c>
       <c r="C125" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>13</v>
-      </c>
-      <c r="E125">
+        <v>10</v>
+      </c>
+      <c r="E125" s="2">
         <v>2627</v>
       </c>
       <c r="F125" s="1">
         <v>9299840</v>
       </c>
       <c r="G125" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>34</v>
-      </c>
-      <c r="B126">
-        <v>2008</v>
+        <v>31</v>
+      </c>
+      <c r="B126" s="2">
+        <v>2018</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D126" t="s">
-        <v>13</v>
-      </c>
-      <c r="E126">
+        <v>10</v>
+      </c>
+      <c r="E126" s="2">
         <v>4397</v>
       </c>
       <c r="F126" s="1">
         <v>26381433</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>32</v>
-      </c>
-      <c r="B127">
-        <v>2009</v>
+        <v>29</v>
+      </c>
+      <c r="B127" s="2">
+        <v>2019</v>
       </c>
       <c r="C127" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D127" t="s">
-        <v>13</v>
-      </c>
-      <c r="E127">
+        <v>10</v>
+      </c>
+      <c r="E127" s="2">
         <v>3717</v>
       </c>
       <c r="F127" s="1">
         <v>16039246</v>
       </c>
       <c r="G127" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>34</v>
-      </c>
-      <c r="B128">
-        <v>2009</v>
+        <v>31</v>
+      </c>
+      <c r="B128" s="2">
+        <v>2019</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D128" t="s">
-        <v>21</v>
-      </c>
-      <c r="E128">
+        <v>18</v>
+      </c>
+      <c r="E128" s="2">
         <v>2754</v>
       </c>
       <c r="F128" s="1">
         <v>31553984</v>
       </c>
       <c r="G128" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>33</v>
-      </c>
-      <c r="B129">
-        <v>2009</v>
+        <v>30</v>
+      </c>
+      <c r="B129" s="2">
+        <v>2019</v>
       </c>
       <c r="C129" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
-      </c>
-      <c r="E129">
+        <v>6</v>
+      </c>
+      <c r="E129" s="2">
         <v>932</v>
       </c>
       <c r="F129" s="1">
         <v>17647949</v>
       </c>
       <c r="G129" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>32</v>
-      </c>
-      <c r="B130">
-        <v>2008</v>
+        <v>29</v>
+      </c>
+      <c r="B130" s="2">
+        <v>2018</v>
       </c>
       <c r="C130" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D130" t="s">
-        <v>18</v>
-      </c>
-      <c r="E130">
+        <v>15</v>
+      </c>
+      <c r="E130" s="2">
         <v>4858</v>
       </c>
       <c r="F130" s="1">
         <v>13669395</v>
       </c>
       <c r="G130" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>31</v>
-      </c>
-      <c r="B131">
-        <v>2010</v>
+        <v>28</v>
+      </c>
+      <c r="B131" s="2">
+        <v>2020</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D131" t="s">
-        <v>18</v>
-      </c>
-      <c r="E131">
+        <v>15</v>
+      </c>
+      <c r="E131" s="2">
         <v>4562</v>
       </c>
       <c r="F131" s="1">
         <v>10629130</v>
       </c>
       <c r="G131" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>23</v>
-      </c>
-      <c r="B132">
-        <v>2009</v>
+        <v>20</v>
+      </c>
+      <c r="B132" s="2">
+        <v>2019</v>
       </c>
       <c r="C132" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
-      </c>
-      <c r="E132">
+        <v>6</v>
+      </c>
+      <c r="E132" s="2">
         <v>4134</v>
       </c>
       <c r="F132" s="1">
         <v>27692129</v>
       </c>
       <c r="G132" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>11</v>
-      </c>
-      <c r="B133">
-        <v>2009</v>
+        <v>8</v>
+      </c>
+      <c r="B133" s="2">
+        <v>2019</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
-      </c>
-      <c r="E133">
+        <v>6</v>
+      </c>
+      <c r="E133" s="2">
         <v>3190</v>
       </c>
       <c r="F133" s="1">
         <v>19446356</v>
       </c>
       <c r="G133" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>15</v>
-      </c>
-      <c r="B134">
-        <v>2009</v>
+        <v>12</v>
+      </c>
+      <c r="B134" s="2">
+        <v>2019</v>
       </c>
       <c r="C134" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
-      </c>
-      <c r="E134">
+        <v>6</v>
+      </c>
+      <c r="E134" s="2">
         <v>3905</v>
       </c>
       <c r="F134" s="1">
         <v>10579704</v>
       </c>
       <c r="G134" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>33</v>
-      </c>
-      <c r="B135">
-        <v>2008</v>
+        <v>30</v>
+      </c>
+      <c r="B135" s="2">
+        <v>2018</v>
       </c>
       <c r="C135" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
-      </c>
-      <c r="E135">
+        <v>6</v>
+      </c>
+      <c r="E135" s="2">
         <v>1807</v>
       </c>
       <c r="F135" s="1">
         <v>18002618</v>
       </c>
       <c r="G135" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>11</v>
-      </c>
-      <c r="B136">
-        <v>2010</v>
+        <v>8</v>
+      </c>
+      <c r="B136" s="2">
+        <v>2020</v>
       </c>
       <c r="C136" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D136" t="s">
-        <v>21</v>
-      </c>
-      <c r="E136">
+        <v>18</v>
+      </c>
+      <c r="E136" s="2">
         <v>1243</v>
       </c>
       <c r="F136" s="1">
         <v>9319345</v>
       </c>
       <c r="G136" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>30</v>
-      </c>
-      <c r="B137">
-        <v>2008</v>
+        <v>27</v>
+      </c>
+      <c r="B137" s="2">
+        <v>2018</v>
       </c>
       <c r="C137" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D137" t="s">
-        <v>21</v>
-      </c>
-      <c r="E137">
+        <v>18</v>
+      </c>
+      <c r="E137" s="2">
         <v>4810</v>
       </c>
       <c r="F137" s="1">
         <v>30765033</v>
       </c>
       <c r="G137" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>33</v>
-      </c>
-      <c r="B138">
-        <v>2008</v>
+        <v>30</v>
+      </c>
+      <c r="B138" s="2">
+        <v>2018</v>
       </c>
       <c r="C138" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D138" t="s">
-        <v>18</v>
-      </c>
-      <c r="E138">
+        <v>15</v>
+      </c>
+      <c r="E138" s="2">
         <v>3009</v>
       </c>
       <c r="F138" s="1">
         <v>11257947</v>
       </c>
       <c r="G138" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>23</v>
-      </c>
-      <c r="B139">
-        <v>2009</v>
+        <v>20</v>
+      </c>
+      <c r="B139" s="2">
+        <v>2019</v>
       </c>
       <c r="C139" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D139" t="s">
-        <v>13</v>
-      </c>
-      <c r="E139">
+        <v>10</v>
+      </c>
+      <c r="E139" s="2">
         <v>2936</v>
       </c>
       <c r="F139" s="1">
         <v>26855207</v>
       </c>
       <c r="G139" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>31</v>
-      </c>
-      <c r="B140">
-        <v>2009</v>
+        <v>28</v>
+      </c>
+      <c r="B140" s="2">
+        <v>2019</v>
       </c>
       <c r="C140" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>26</v>
-      </c>
-      <c r="E140">
+        <v>23</v>
+      </c>
+      <c r="E140" s="2">
         <v>4425</v>
       </c>
       <c r="F140" s="1">
         <v>5870101</v>
       </c>
       <c r="G140" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>7</v>
-      </c>
-      <c r="B141">
-        <v>2010</v>
+        <v>4</v>
+      </c>
+      <c r="B141" s="2">
+        <v>2020</v>
       </c>
       <c r="C141" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
-      </c>
-      <c r="E141">
+        <v>6</v>
+      </c>
+      <c r="E141" s="2">
         <v>1425</v>
       </c>
       <c r="F141" s="1">
         <v>17959045</v>
       </c>
       <c r="G141" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>23</v>
-      </c>
-      <c r="B142">
-        <v>2010</v>
+        <v>20</v>
+      </c>
+      <c r="B142" s="2">
+        <v>2020</v>
       </c>
       <c r="C142" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D142" t="s">
-        <v>18</v>
-      </c>
-      <c r="E142">
+        <v>15</v>
+      </c>
+      <c r="E142" s="2">
         <v>3044</v>
       </c>
       <c r="F142" s="1">
         <v>11783323</v>
       </c>
       <c r="G142" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>32</v>
-      </c>
-      <c r="B143">
-        <v>2008</v>
+        <v>29</v>
+      </c>
+      <c r="B143" s="2">
+        <v>2018</v>
       </c>
       <c r="C143" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D143" t="s">
-        <v>21</v>
-      </c>
-      <c r="E143">
+        <v>18</v>
+      </c>
+      <c r="E143" s="2">
         <v>4951</v>
       </c>
       <c r="F143" s="1">
         <v>12222666</v>
       </c>
       <c r="G143" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>30</v>
-      </c>
-      <c r="B144">
-        <v>2009</v>
+        <v>27</v>
+      </c>
+      <c r="B144" s="2">
+        <v>2019</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
-      </c>
-      <c r="E144">
+        <v>6</v>
+      </c>
+      <c r="E144" s="2">
         <v>2566</v>
       </c>
       <c r="F144" s="1">
         <v>21006431</v>
       </c>
       <c r="G144" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>33</v>
-      </c>
-      <c r="B145">
-        <v>2009</v>
+        <v>30</v>
+      </c>
+      <c r="B145" s="2">
+        <v>2019</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D145" t="s">
-        <v>13</v>
-      </c>
-      <c r="E145">
+        <v>10</v>
+      </c>
+      <c r="E145" s="2">
         <v>3925</v>
       </c>
       <c r="F145" s="1">
         <v>24435739</v>
       </c>
       <c r="G145" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>33</v>
-      </c>
-      <c r="B146">
-        <v>2010</v>
+        <v>30</v>
+      </c>
+      <c r="B146" s="2">
+        <v>2020</v>
       </c>
       <c r="C146" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>13</v>
-      </c>
-      <c r="E146">
+        <v>10</v>
+      </c>
+      <c r="E146" s="2">
         <v>4261</v>
       </c>
       <c r="F146" s="1">
         <v>15874389</v>
       </c>
       <c r="G146" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>34</v>
-      </c>
-      <c r="B147">
-        <v>2008</v>
+        <v>31</v>
+      </c>
+      <c r="B147" s="2">
+        <v>2018</v>
       </c>
       <c r="C147" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D147" t="s">
-        <v>26</v>
-      </c>
-      <c r="E147">
+        <v>23</v>
+      </c>
+      <c r="E147" s="2">
         <v>1546</v>
       </c>
       <c r="F147" s="1">
         <v>24898288</v>
       </c>
       <c r="G147" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>34</v>
-      </c>
-      <c r="B148">
-        <v>2008</v>
+        <v>31</v>
+      </c>
+      <c r="B148" s="2">
+        <v>2018</v>
       </c>
       <c r="C148" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>21</v>
-      </c>
-      <c r="E148">
+        <v>18</v>
+      </c>
+      <c r="E148" s="2">
         <v>1162</v>
       </c>
       <c r="F148" s="1">
         <v>5792861</v>
       </c>
       <c r="G148" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>31</v>
-      </c>
-      <c r="B149">
-        <v>2009</v>
+        <v>28</v>
+      </c>
+      <c r="B149" s="2">
+        <v>2019</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D149" t="s">
-        <v>13</v>
-      </c>
-      <c r="E149">
+        <v>10</v>
+      </c>
+      <c r="E149" s="2">
         <v>1526</v>
       </c>
       <c r="F149" s="1">
         <v>9658136</v>
       </c>
       <c r="G149" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>31</v>
-      </c>
-      <c r="B150">
-        <v>2009</v>
+        <v>28</v>
+      </c>
+      <c r="B150" s="2">
+        <v>2019</v>
       </c>
       <c r="C150" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D150" t="s">
-        <v>26</v>
-      </c>
-      <c r="E150">
+        <v>23</v>
+      </c>
+      <c r="E150" s="2">
         <v>2538</v>
       </c>
       <c r="F150" s="1">
         <v>20260377</v>
       </c>
       <c r="G150" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>31</v>
-      </c>
-      <c r="B151">
-        <v>2010</v>
+        <v>28</v>
+      </c>
+      <c r="B151" s="2">
+        <v>2020</v>
       </c>
       <c r="C151" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
-      </c>
-      <c r="E151">
+        <v>6</v>
+      </c>
+      <c r="E151" s="2">
         <v>2613</v>
       </c>
       <c r="F151" s="1">
         <v>25398033</v>
       </c>
       <c r="G151" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>23</v>
-      </c>
-      <c r="B152">
-        <v>2008</v>
+        <v>20</v>
+      </c>
+      <c r="B152" s="2">
+        <v>2018</v>
       </c>
       <c r="C152" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>16</v>
-      </c>
-      <c r="E152">
+        <v>13</v>
+      </c>
+      <c r="E152" s="2">
         <v>4851</v>
       </c>
       <c r="F152" s="1">
         <v>7999078</v>
       </c>
       <c r="G152" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>11</v>
-      </c>
-      <c r="B153">
-        <v>2008</v>
+        <v>8</v>
+      </c>
+      <c r="B153" s="2">
+        <v>2018</v>
       </c>
       <c r="C153" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D153" t="s">
-        <v>18</v>
-      </c>
-      <c r="E153">
+        <v>15</v>
+      </c>
+      <c r="E153" s="2">
         <v>1539</v>
       </c>
       <c r="F153" s="1">
         <v>21394635</v>
       </c>
       <c r="G153" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>32</v>
-      </c>
-      <c r="B154">
-        <v>2009</v>
+        <v>29</v>
+      </c>
+      <c r="B154" s="2">
+        <v>2019</v>
       </c>
       <c r="C154" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D154" t="s">
-        <v>26</v>
-      </c>
-      <c r="E154">
+        <v>23</v>
+      </c>
+      <c r="E154" s="2">
         <v>3726</v>
       </c>
       <c r="F154" s="1">
         <v>27800655</v>
       </c>
       <c r="G154" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>32</v>
-      </c>
-      <c r="B155">
-        <v>2010</v>
+        <v>29</v>
+      </c>
+      <c r="B155" s="2">
+        <v>2020</v>
       </c>
       <c r="C155" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
-      </c>
-      <c r="E155">
+        <v>6</v>
+      </c>
+      <c r="E155" s="2">
         <v>2167</v>
       </c>
       <c r="F155" s="1">
         <v>22960434</v>
       </c>
       <c r="G155" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>17</v>
-      </c>
-      <c r="B156">
-        <v>2010</v>
+        <v>14</v>
+      </c>
+      <c r="B156" s="2">
+        <v>2020</v>
       </c>
       <c r="C156" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D156" t="s">
-        <v>21</v>
-      </c>
-      <c r="E156">
+        <v>18</v>
+      </c>
+      <c r="E156" s="2">
         <v>4132</v>
       </c>
       <c r="F156" s="1">
         <v>14165841</v>
       </c>
       <c r="G156" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>33</v>
-      </c>
-      <c r="B157">
-        <v>2010</v>
+        <v>30</v>
+      </c>
+      <c r="B157" s="2">
+        <v>2020</v>
       </c>
       <c r="C157" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D157" t="s">
-        <v>26</v>
-      </c>
-      <c r="E157">
+        <v>23</v>
+      </c>
+      <c r="E157" s="2">
         <v>4811</v>
       </c>
       <c r="F157" s="1">
         <v>17156818</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>15</v>
-      </c>
-      <c r="B158">
-        <v>2010</v>
+        <v>12</v>
+      </c>
+      <c r="B158" s="2">
+        <v>2020</v>
       </c>
       <c r="C158" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>13</v>
-      </c>
-      <c r="E158">
+        <v>10</v>
+      </c>
+      <c r="E158" s="2">
         <v>4210</v>
       </c>
       <c r="F158" s="1">
         <v>9226347</v>
       </c>
       <c r="G158" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>32</v>
-      </c>
-      <c r="B159">
-        <v>2010</v>
+        <v>29</v>
+      </c>
+      <c r="B159" s="2">
+        <v>2020</v>
       </c>
       <c r="C159" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D159" t="s">
-        <v>21</v>
-      </c>
-      <c r="E159">
+        <v>18</v>
+      </c>
+      <c r="E159" s="2">
         <v>2163</v>
       </c>
       <c r="F159" s="1">
         <v>29503575</v>
       </c>
       <c r="G159" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>7</v>
-      </c>
-      <c r="B160">
-        <v>2008</v>
+        <v>4</v>
+      </c>
+      <c r="B160" s="2">
+        <v>2018</v>
       </c>
       <c r="C160" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D160" t="s">
-        <v>13</v>
-      </c>
-      <c r="E160">
+        <v>10</v>
+      </c>
+      <c r="E160" s="2">
         <v>3863</v>
       </c>
       <c r="F160" s="1">
         <v>30389515</v>
       </c>
       <c r="G160" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>32</v>
-      </c>
-      <c r="B161">
-        <v>2009</v>
+        <v>29</v>
+      </c>
+      <c r="B161" s="2">
+        <v>2019</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D161" t="s">
-        <v>13</v>
-      </c>
-      <c r="E161">
+        <v>10</v>
+      </c>
+      <c r="E161" s="2">
         <v>3710</v>
       </c>
       <c r="F161" s="1">
         <v>22140321</v>
       </c>
       <c r="G161" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>15</v>
-      </c>
-      <c r="B162">
-        <v>2008</v>
+        <v>12</v>
+      </c>
+      <c r="B162" s="2">
+        <v>2018</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
-      </c>
-      <c r="E162">
+        <v>6</v>
+      </c>
+      <c r="E162" s="2">
         <v>2659</v>
       </c>
       <c r="F162" s="1">
         <v>7919393</v>
       </c>
       <c r="G162" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>30</v>
-      </c>
-      <c r="B163">
-        <v>2010</v>
+        <v>27</v>
+      </c>
+      <c r="B163" s="2">
+        <v>2020</v>
       </c>
       <c r="C163" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>21</v>
-      </c>
-      <c r="E163">
+        <v>18</v>
+      </c>
+      <c r="E163" s="2">
         <v>2531</v>
       </c>
       <c r="F163" s="1">
         <v>16944827</v>
       </c>
       <c r="G163" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>17</v>
-      </c>
-      <c r="B164">
-        <v>2009</v>
+        <v>14</v>
+      </c>
+      <c r="B164" s="2">
+        <v>2019</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D164" t="s">
-        <v>13</v>
-      </c>
-      <c r="E164">
+        <v>10</v>
+      </c>
+      <c r="E164" s="2">
         <v>3971</v>
       </c>
       <c r="F164" s="1">
         <v>29989212</v>
       </c>
       <c r="G164" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>27</v>
-      </c>
-      <c r="B165">
-        <v>2008</v>
+        <v>24</v>
+      </c>
+      <c r="B165" s="2">
+        <v>2018</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D165" t="s">
-        <v>26</v>
-      </c>
-      <c r="E165">
+        <v>23</v>
+      </c>
+      <c r="E165" s="2">
         <v>1023</v>
       </c>
       <c r="F165" s="1">
         <v>8057755</v>
       </c>
       <c r="G165" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C166" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" t="s">
         <v>15</v>
       </c>
-      <c r="B166">
-        <v>2008</v>
-      </c>
-      <c r="C166" t="s">
-        <v>20</v>
-      </c>
-      <c r="D166" t="s">
-        <v>18</v>
-      </c>
-      <c r="E166">
+      <c r="E166" s="2">
         <v>3761</v>
       </c>
       <c r="F166" s="1">
         <v>8066334</v>
       </c>
       <c r="G166" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>15</v>
-      </c>
-      <c r="B167">
-        <v>2010</v>
+        <v>12</v>
+      </c>
+      <c r="B167" s="2">
+        <v>2020</v>
       </c>
       <c r="C167" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D167" t="s">
-        <v>21</v>
-      </c>
-      <c r="E167">
+        <v>18</v>
+      </c>
+      <c r="E167" s="2">
         <v>2264</v>
       </c>
       <c r="F167" s="1">
         <v>21708461</v>
       </c>
       <c r="G167" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>34</v>
-      </c>
-      <c r="B168">
-        <v>2008</v>
+        <v>31</v>
+      </c>
+      <c r="B168" s="2">
+        <v>2018</v>
       </c>
       <c r="C168" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
-      </c>
-      <c r="E168">
+        <v>6</v>
+      </c>
+      <c r="E168" s="2">
         <v>3983</v>
       </c>
       <c r="F168" s="1">
         <v>18755446</v>
       </c>
       <c r="G168" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>14</v>
+      </c>
+      <c r="B169" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C169" t="s">
         <v>17</v>
       </c>
-      <c r="B169">
-        <v>2008</v>
-      </c>
-      <c r="C169" t="s">
-        <v>20</v>
-      </c>
       <c r="D169" t="s">
-        <v>9</v>
-      </c>
-      <c r="E169">
+        <v>6</v>
+      </c>
+      <c r="E169" s="2">
         <v>2697</v>
       </c>
       <c r="F169" s="1">
         <v>9662521</v>
       </c>
       <c r="G169" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>30</v>
-      </c>
-      <c r="B170">
-        <v>2009</v>
+        <v>27</v>
+      </c>
+      <c r="B170" s="2">
+        <v>2019</v>
       </c>
       <c r="C170" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D170" t="s">
-        <v>16</v>
-      </c>
-      <c r="E170">
+        <v>13</v>
+      </c>
+      <c r="E170" s="2">
         <v>1018</v>
       </c>
       <c r="F170" s="1">
         <v>25078121</v>
       </c>
       <c r="G170" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>27</v>
-      </c>
-      <c r="B171">
-        <v>2008</v>
+        <v>24</v>
+      </c>
+      <c r="B171" s="2">
+        <v>2018</v>
       </c>
       <c r="C171" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
-      </c>
-      <c r="E171">
+        <v>6</v>
+      </c>
+      <c r="E171" s="2">
         <v>3533</v>
       </c>
       <c r="F171" s="1">
         <v>7658056</v>
       </c>
       <c r="G171" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>30</v>
-      </c>
-      <c r="B172">
-        <v>2008</v>
+        <v>27</v>
+      </c>
+      <c r="B172" s="2">
+        <v>2018</v>
       </c>
       <c r="C172" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>13</v>
-      </c>
-      <c r="E172">
+        <v>10</v>
+      </c>
+      <c r="E172" s="2">
         <v>2893</v>
       </c>
       <c r="F172" s="1">
         <v>18318567</v>
       </c>
       <c r="G172" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>32</v>
-      </c>
-      <c r="B173">
-        <v>2010</v>
+        <v>29</v>
+      </c>
+      <c r="B173" s="2">
+        <v>2020</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D173" t="s">
-        <v>16</v>
-      </c>
-      <c r="E173">
+        <v>13</v>
+      </c>
+      <c r="E173" s="2">
         <v>4758</v>
       </c>
       <c r="F173" s="1">
         <v>9312010</v>
       </c>
       <c r="G173" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>7</v>
-      </c>
-      <c r="B174">
-        <v>2008</v>
+        <v>4</v>
+      </c>
+      <c r="B174" s="2">
+        <v>2018</v>
       </c>
       <c r="C174" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>18</v>
-      </c>
-      <c r="E174">
+        <v>15</v>
+      </c>
+      <c r="E174" s="2">
         <v>2925</v>
       </c>
       <c r="F174" s="1">
         <v>31204355</v>
       </c>
       <c r="G174" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>23</v>
-      </c>
-      <c r="B175">
-        <v>2010</v>
+        <v>20</v>
+      </c>
+      <c r="B175" s="2">
+        <v>2020</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
-      </c>
-      <c r="E175">
+        <v>6</v>
+      </c>
+      <c r="E175" s="2">
         <v>4672</v>
       </c>
       <c r="F175" s="1">
         <v>20725397</v>
       </c>
       <c r="G175" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>17</v>
-      </c>
-      <c r="B176">
-        <v>2008</v>
+        <v>14</v>
+      </c>
+      <c r="B176" s="2">
+        <v>2018</v>
       </c>
       <c r="C176" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D176" t="s">
-        <v>26</v>
-      </c>
-      <c r="E176">
+        <v>23</v>
+      </c>
+      <c r="E176" s="2">
         <v>2288</v>
       </c>
       <c r="F176" s="1">
         <v>29657237</v>
       </c>
       <c r="G176" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>34</v>
-      </c>
-      <c r="B177">
-        <v>2009</v>
+        <v>31</v>
+      </c>
+      <c r="B177" s="2">
+        <v>2019</v>
       </c>
       <c r="C177" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D177" t="s">
-        <v>26</v>
-      </c>
-      <c r="E177">
+        <v>23</v>
+      </c>
+      <c r="E177" s="2">
         <v>2109</v>
       </c>
       <c r="F177" s="1">
         <v>11102083</v>
       </c>
       <c r="G177" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>19</v>
-      </c>
-      <c r="B178">
-        <v>2009</v>
+        <v>16</v>
+      </c>
+      <c r="B178" s="2">
+        <v>2019</v>
       </c>
       <c r="C178" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D178" t="s">
-        <v>21</v>
-      </c>
-      <c r="E178">
+        <v>18</v>
+      </c>
+      <c r="E178" s="2">
         <v>1777</v>
       </c>
       <c r="F178" s="1">
         <v>23972335</v>
       </c>
       <c r="G178" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>32</v>
-      </c>
-      <c r="B179">
-        <v>2010</v>
+        <v>29</v>
+      </c>
+      <c r="B179" s="2">
+        <v>2020</v>
       </c>
       <c r="C179" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>13</v>
-      </c>
-      <c r="E179">
+        <v>10</v>
+      </c>
+      <c r="E179" s="2">
         <v>960</v>
       </c>
       <c r="F179" s="1">
         <v>9124694</v>
       </c>
       <c r="G179" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>32</v>
-      </c>
-      <c r="B180">
-        <v>2008</v>
+        <v>29</v>
+      </c>
+      <c r="B180" s="2">
+        <v>2018</v>
       </c>
       <c r="C180" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>21</v>
-      </c>
-      <c r="E180">
+        <v>18</v>
+      </c>
+      <c r="E180" s="2">
         <v>3142</v>
       </c>
       <c r="F180" s="1">
         <v>21837764</v>
       </c>
       <c r="G180" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>33</v>
-      </c>
-      <c r="B181">
-        <v>2009</v>
+        <v>30</v>
+      </c>
+      <c r="B181" s="2">
+        <v>2019</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
-      </c>
-      <c r="E181">
+        <v>6</v>
+      </c>
+      <c r="E181" s="2">
         <v>2162</v>
       </c>
       <c r="F181" s="1">
         <v>8280515</v>
       </c>
       <c r="G181" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>31</v>
+      </c>
+      <c r="B182" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C182" t="s">
+        <v>35</v>
+      </c>
+      <c r="D182" t="s">
+        <v>23</v>
+      </c>
+      <c r="E182" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F182" s="1">
+        <v>6950000</v>
+      </c>
+      <c r="G182" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>4</v>
+      </c>
+      <c r="B183" s="2">
+        <v>2019</v>
+      </c>
+      <c r="C183" t="s">
+        <v>5</v>
+      </c>
+      <c r="D183" t="s">
+        <v>13</v>
+      </c>
+      <c r="E183" s="2">
+        <v>2950</v>
+      </c>
+      <c r="F183" s="1">
+        <v>18679492.792948496</v>
+      </c>
+      <c r="G183" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Período Incorrecto" error="El periodo ingresado debe abarcar los años entre 2015 y 2025" promptTitle="Período" prompt="coloque un año entre 2015 y 2025" sqref="B1:B1048576" xr:uid="{0D10D10D-0565-4D11-9A70-6E75795DD861}">
+      <formula1>2015</formula1>
+      <formula2>2025</formula2>
+    </dataValidation>
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Cantidad Incorrecta" error="La cantidad ingresada debe rondar entre las 500 y 10000 unidades." promptTitle="Cantidad" prompt="Coloque un valor entre 500 y 10000" sqref="E2:E1048576" xr:uid="{6A0E362F-5F24-4CAC-B72E-35C5EA19EF07}">
+      <formula1>500</formula1>
+      <formula2>10000</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{EB38A52A-5515-4A40-BCDD-49418F131D80}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{920937B1-B3EB-4E1E-AF18-114DB12F56E8}">
+          <x14:formula1>
+            <xm:f>mes!$A$2:$A$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1:A1048576 M2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{50FE08C9-39D1-4D3F-A5AE-826E69D9390A}">
+          <x14:formula1>
+            <xm:f>region!$A$2:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>G1:G1048576 L2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B16C1A1C-9CFF-4D59-8B13-8B23B57DD491}">
+          <x14:formula1>
+            <xm:f>vendedor!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D1048576 K2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E3CDAB-3DF8-462E-8F86-45AE9D81FB01}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A7" xr:uid="{51E3CDAB-3DF8-462E-8F86-45AE9D81FB01}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A7">
+      <sortCondition ref="A1:A7"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF03F866-DB0B-4048-9F57-EBEF0F237480}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A6" xr:uid="{BF03F866-DB0B-4048-9F57-EBEF0F237480}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A6">
+      <sortCondition ref="A1:A6"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE92BAE4-39ED-47B0-97B6-C1215C99E5A0}">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/db_supermercado.xlsx
+++ b/db_supermercado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EducacionIT\Documents\office\Excel\xav-m15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4564CB-1DFF-48EC-96DF-8407267AD379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFD7DEA-973A-4B23-9D77-36FF65E7D388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10800" activeTab="1" xr2:uid="{97DD950F-96E2-4B97-B3BD-DF46440A712E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10800" activeTab="2" xr2:uid="{97DD950F-96E2-4B97-B3BD-DF46440A712E}"/>
   </bookViews>
   <sheets>
     <sheet name="ventas" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">regiones!$A$1:$A$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">vendedores!$A$1:$A$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ventas!$A$1:$G$181</definedName>
+    <definedName name="condicion_premio">vendedores!$K$2</definedName>
     <definedName name="db_condicion">estadisticas!$A$1:$G$2</definedName>
+    <definedName name="premio_f">vendedores!$M$2</definedName>
+    <definedName name="premio_v">vendedores!$L$2</definedName>
     <definedName name="tabla_ventas">ventas!$A:$G</definedName>
     <definedName name="ventas_precio">ventas!$F:$F</definedName>
     <definedName name="ventas_producto">ventas!$C:$C</definedName>
@@ -51,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="54">
   <si>
     <t>Mes</t>
   </si>
@@ -187,6 +190,33 @@
   <si>
     <t>Cantidad</t>
   </si>
+  <si>
+    <t>Recaudacion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>comision</t>
+  </si>
+  <si>
+    <t>premio</t>
+  </si>
+  <si>
+    <t>condicion</t>
+  </si>
+  <si>
+    <t>OBJ</t>
+  </si>
+  <si>
+    <t>COMISION</t>
+  </si>
 </sst>
 </file>
 
@@ -195,9 +225,9 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +241,14 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -241,12 +279,22 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
@@ -254,7 +302,568 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{385567CA-A40D-4706-8194-05E7B43A981C}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="49">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -265,6 +874,95 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EB613B6-93C3-4B79-B71A-B48B318AD25F}" name="tabla_vendedores" displayName="tabla_vendedores" ref="A1:I8" totalsRowCount="1" headerRowDxfId="47" dataDxfId="48" dataCellStyle="Moneda">
+  <autoFilter ref="A1:I7" xr:uid="{6EB613B6-93C3-4B79-B71A-B48B318AD25F}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{651BE219-A1EF-48C4-819B-EDF17E87C710}" name="Vendedor" totalsRowLabel="Total" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{A0C0EC34-1BF3-4A8D-B963-A1D242E2D48A}" name="Antioquia" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="7" dataCellStyle="Moneda"/>
+    <tableColumn id="3" xr3:uid="{D49F2007-032B-4FEA-92E8-0C12E5209E43}" name="Caribe" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="6" dataCellStyle="Moneda"/>
+    <tableColumn id="4" xr3:uid="{016A324D-F516-42E9-AAB8-258A3E0934E6}" name="Central" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="5" dataCellStyle="Moneda"/>
+    <tableColumn id="5" xr3:uid="{2F122157-D17A-4E5E-A738-1132F3278694}" name="Pacifico" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="4" dataCellStyle="Moneda"/>
+    <tableColumn id="6" xr3:uid="{F80876AC-A4F3-4C96-B28C-9A64096BDAE3}" name="Santanderes" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="3" dataCellStyle="Moneda"/>
+    <tableColumn id="7" xr3:uid="{E4A90127-FD5D-40F2-971C-8791F04CB5AE}" name="total" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{52643D21-F702-47F2-9158-83252F366678}" name="COMISION" totalsRowFunction="average" dataDxfId="9" totalsRowDxfId="1" dataCellStyle="Moneda">
+      <calculatedColumnFormula>IF(tabla_vendedores[[#This Row],[total]]&gt;=condicion_premio,tabla_vendedores[[#This Row],[total]]*premio_v,tabla_vendedores[[#This Row],[total]]*premio_f)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{B84C3849-3836-444B-AEF1-E508B0624FBC}" name="OBJ" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="0">
+      <calculatedColumnFormula>IF(tabla_vendedores[[#This Row],[total]]&gt;=condicion_premio,"SI","NO")</calculatedColumnFormula>
+      <totalsRowFormula>COUNTIF(tabla_vendedores[OBJ],"SI")</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{022CD2BF-05BB-43A8-9448-1DA88C404803}" name="tabla_productos" displayName="tabla_productos" ref="A1:H7" totalsRowCount="1" headerRowDxfId="45">
+  <autoFilter ref="A1:H6" xr:uid="{022CD2BF-05BB-43A8-9448-1DA88C404803}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{6C663D01-F8B2-4795-83BA-31076894C9BB}" name="Producto" totalsRowLabel="Total" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{18359577-D30A-46C5-936A-9E30967F2919}" name="Capioli" totalsRowFunction="sum" totalsRowDxfId="40" dataCellStyle="Moneda">
+      <calculatedColumnFormula>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,B$1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{A67D2298-61F8-46CC-A412-EA57C271ED3A}" name="Cardenas" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="39">
+      <calculatedColumnFormula>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,C$1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{028643E8-331C-4446-9168-B209480993CD}" name="Juarez" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="38">
+      <calculatedColumnFormula>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,D$1)</calculatedColumnFormula>
+      <totalsRowFormula>SUBTOTAL(109,tabla_productos[Cardenas])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{D211A275-C157-44F2-9637-DAE6202A09E7}" name="Lujan" totalsRowFunction="custom" dataDxfId="42" totalsRowDxfId="37">
+      <calculatedColumnFormula>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,E$1)</calculatedColumnFormula>
+      <totalsRowFormula>SUBTOTAL(109,tabla_productos[Juarez])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{9ACEDA62-DF4D-4139-93D5-33CF4B68746E}" name="Sanchez" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="36">
+      <calculatedColumnFormula>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,F$1)</calculatedColumnFormula>
+      <totalsRowFormula>SUBTOTAL(109,tabla_productos[Juarez])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{19A365D1-DD42-4C49-AEC8-BCC07389F228}" name="Zuloaga" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="35">
+      <calculatedColumnFormula>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,G$1)</calculatedColumnFormula>
+      <totalsRowFormula>SUBTOTAL(109,tabla_productos[Lujan])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{7023D789-0747-460D-9501-A04FDB40E412}" name="Total" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="34">
+      <calculatedColumnFormula>SUM(tabla_productos[[#This Row],[Capioli]:[Zuloaga]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4918B505-8171-4743-8C7C-9EA7D0478895}" name="tabla_regiones" displayName="tabla_regiones" ref="A1:H7" totalsRowCount="1">
+  <autoFilter ref="A1:H6" xr:uid="{4918B505-8171-4743-8C7C-9EA7D0478895}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{2638D21F-4166-4706-ABAF-2871C1BA3138}" name="Region" totalsRowLabel="Total" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{6685E649-A14C-41A0-BBB3-709D1B6D37F7}" name="Capioli" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="23" dataCellStyle="Moneda">
+      <calculatedColumnFormula>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,B$1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{0CB22250-B691-42D0-A3A6-11404C0187BA}" name="Cardenas" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="22">
+      <calculatedColumnFormula>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,C$1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{2907BCD5-1B9C-447F-9385-C09BF56FFF75}" name="Juarez" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="21" dataCellStyle="Moneda">
+      <calculatedColumnFormula>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,D$1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{1B2EEB25-DE9E-4AA6-BE30-30925CE712EA}" name="Lujan" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="20">
+      <calculatedColumnFormula>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,E$1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{973093B2-522D-4119-83AE-9553448A1F3D}" name="Sanchez" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="19" dataCellStyle="Moneda">
+      <calculatedColumnFormula>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,F$1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{E7756FE0-44BE-4F87-BB31-FF5AEF36F1FC}" name="Zuloaga" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="18">
+      <calculatedColumnFormula>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,G$1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{859C5AC2-7E69-40FF-9FF2-14674C44A2D1}" name="Total" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="17">
+      <calculatedColumnFormula>SUM(tabla_regiones[[#This Row],[Capioli]:[Zuloaga]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -564,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D73896-876D-4E2F-AA30-36383BB76670}">
-  <dimension ref="A1:K181"/>
+  <dimension ref="A1:K182"/>
   <sheetViews>
-    <sheetView zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView topLeftCell="H2" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +1375,7 @@
       </c>
       <c r="K3" s="3">
         <f>MAX(ventas_precio)</f>
-        <v>31939624</v>
+        <v>50835211</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -707,11 +1405,11 @@
       </c>
       <c r="J4" s="4">
         <f>AVERAGE(ventas_unidades)</f>
-        <v>2907.2277777777776</v>
+        <v>2906.6906077348067</v>
       </c>
       <c r="K4" s="3">
         <f>AVERAGE(ventas_precio)</f>
-        <v>17796672.055555556</v>
+        <v>17979205.419889502</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -741,11 +1439,11 @@
       </c>
       <c r="J5">
         <f>MEDIAN(ventas_unidades)</f>
-        <v>2930.5</v>
+        <v>2925</v>
       </c>
       <c r="K5" s="3">
         <f>MEDIAN(ventas_precio)</f>
-        <v>17980831.5</v>
+        <v>18002618</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -775,11 +1473,11 @@
       </c>
       <c r="J6" s="2">
         <f>SUM(ventas_unidades)</f>
-        <v>523301</v>
+        <v>526111</v>
       </c>
       <c r="K6" s="3">
         <f>SUM(ventas_precio)</f>
-        <v>3203400970</v>
+        <v>3254236181</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4805,6 +5503,29 @@
       </c>
       <c r="G181" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B182" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E182" s="2">
+        <v>2810</v>
+      </c>
+      <c r="F182" s="3">
+        <v>50835211</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -4855,15 +5576,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0B1BE0-A402-4B19-A730-4404D220FBC4}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -4891,7 +5618,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
@@ -4899,46 +5626,97 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4">
-        <f>DMIN(tabla_ventas,ventas!E1,db_condicion)</f>
-        <v>928</v>
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="B5" s="2">
+        <f>DMIN(ventas!A:G,ventas!E1,db_condicion)</f>
+        <v>928</v>
+      </c>
+      <c r="C5" s="3">
+        <f>DMIN(ventas!$A:$G,ventas!$F$1,db_condicion)</f>
+        <v>5090135</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="B6" s="2">
+        <f>DMAX(ventas!A:G,ventas!E1,db_condicion)</f>
+        <v>4991</v>
+      </c>
+      <c r="C6" s="3">
+        <f>DMAX(ventas!$A:$G,ventas!$F$1,db_condicion)</f>
+        <v>50835211</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="B7" s="2">
+        <f>DCOUNT(ventas!$A:$G,ventas!E1,$A$1:$G$2)</f>
+        <v>181</v>
+      </c>
+      <c r="C7" s="2">
+        <f>DCOUNT(ventas!$A:$G,ventas!$F$1,db_condicion)</f>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="5">
+        <f>DAVERAGE(ventas!A:G,ventas!$E$1,db_condicion)</f>
+        <v>2906.6906077348067</v>
+      </c>
+      <c r="C8" s="3">
+        <f>DAVERAGE(ventas!$A:$G,ventas!$F$1,db_condicion)</f>
+        <v>17979205.419889502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>39</v>
+      </c>
+      <c r="B9" s="2">
+        <f>DSUM(ventas!A:G,ventas!$E$1,db_condicion)</f>
+        <v>526111</v>
+      </c>
+      <c r="C9" s="3">
+        <f>DSUM(ventas!$A:$G,ventas!$F$1,db_condicion)</f>
+        <v>3254236181</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F2" xr:uid="{657C0106-0F2E-45D9-AA72-68CB48D0ECAB}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F3" xr:uid="{657C0106-0F2E-45D9-AA72-68CB48D0ECAB}">
       <formula1>1</formula1>
       <formula2>99999999</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E2" xr:uid="{36656274-6FF5-4EB6-97BF-D11D7BF4E074}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E3" xr:uid="{36656274-6FF5-4EB6-97BF-D11D7BF4E074}">
       <formula1>1</formula1>
       <formula2>999999999</formula2>
     </dataValidation>
@@ -4951,19 +5729,19 @@
           <x14:formula1>
             <xm:f>regiones!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>G1:G2</xm:sqref>
+          <xm:sqref>G1:G3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8CBA7C05-79CC-4F55-A869-19AFFBA52CAC}">
           <x14:formula1>
             <xm:f>vendedores!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:D2</xm:sqref>
+          <xm:sqref>D1:D3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A984AE60-5ADE-4721-A018-8C11FB45850C}">
           <x14:formula1>
             <xm:f>productos!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C2</xm:sqref>
+          <xm:sqref>C1:C3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4973,77 +5751,354 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD817869-3332-4BA1-9CA6-D67763739E2F}">
-  <dimension ref="A1:A181"/>
+  <dimension ref="A1:M181"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3">
+        <f>SUMIFS(ventas_precio,ventas_vendedor,$A2,ventas_region,B$1)</f>
+        <v>73836463</v>
+      </c>
+      <c r="C2" s="3">
+        <f>SUMIFS(ventas_precio,ventas_vendedor,$A2,ventas_region,C$1)</f>
+        <v>76700859</v>
+      </c>
+      <c r="D2" s="3">
+        <f>SUMIFS(ventas_precio,ventas_vendedor,$A2,ventas_region,D$1)</f>
+        <v>44881356</v>
+      </c>
+      <c r="E2" s="3">
+        <f>SUMIFS(ventas_precio,ventas_vendedor,$A2,ventas_region,E$1)</f>
+        <v>135280108</v>
+      </c>
+      <c r="F2" s="3">
+        <f>SUMIFS(ventas_precio,ventas_vendedor,$A2,ventas_region,F$1)</f>
+        <v>27153333</v>
+      </c>
+      <c r="G2" s="10">
+        <f>SUM($B2:$F2)</f>
+        <v>357852119</v>
+      </c>
+      <c r="H2" s="3">
+        <f>IF(tabla_vendedores[[#This Row],[total]]&gt;=condicion_premio,tabla_vendedores[[#This Row],[total]]*premio_v,tabla_vendedores[[#This Row],[total]]*premio_f)</f>
+        <v>35785211.899999999</v>
+      </c>
+      <c r="I2" s="10" t="str">
+        <f>IF(tabla_vendedores[[#This Row],[total]]&gt;=condicion_premio,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="K2" s="5">
+        <v>600000000</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="M2" s="11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <f>SUMIFS(ventas_precio,ventas_vendedor,$A3,ventas_region,B$1)</f>
+        <v>169977929</v>
+      </c>
+      <c r="C3" s="3">
+        <f>SUMIFS(ventas_precio,ventas_vendedor,$A3,ventas_region,C$1)</f>
+        <v>71950539</v>
+      </c>
+      <c r="D3" s="3">
+        <f>SUMIFS(ventas_precio,ventas_vendedor,$A3,ventas_region,D$1)</f>
+        <v>52631529</v>
+      </c>
+      <c r="E3" s="3">
+        <f>SUMIFS(ventas_precio,ventas_vendedor,$A3,ventas_region,E$1)</f>
+        <v>109144041</v>
+      </c>
+      <c r="F3" s="3">
+        <f>SUMIFS(ventas_precio,ventas_vendedor,$A3,ventas_region,F$1)</f>
+        <v>232698504</v>
+      </c>
+      <c r="G3" s="10">
+        <f t="shared" ref="G3:G7" si="0">SUM($B3:$F3)</f>
+        <v>636402542</v>
+      </c>
+      <c r="H3" s="3">
+        <f>IF(tabla_vendedores[[#This Row],[total]]&gt;=condicion_premio,tabla_vendedores[[#This Row],[total]]*premio_v,tabla_vendedores[[#This Row],[total]]*premio_f)</f>
+        <v>159100635.5</v>
+      </c>
+      <c r="I3" s="10" t="str">
+        <f>IF(tabla_vendedores[[#This Row],[total]]&gt;=condicion_premio,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <f>SUMIFS(ventas_precio,ventas_vendedor,$A4,ventas_region,B$1)</f>
+        <v>336034466</v>
+      </c>
+      <c r="C4" s="3">
+        <f>SUMIFS(ventas_precio,ventas_vendedor,$A4,ventas_region,C$1)</f>
+        <v>110517698</v>
+      </c>
+      <c r="D4" s="3">
+        <f>SUMIFS(ventas_precio,ventas_vendedor,$A4,ventas_region,D$1)</f>
+        <v>93604609</v>
+      </c>
+      <c r="E4" s="3">
+        <f>SUMIFS(ventas_precio,ventas_vendedor,$A4,ventas_region,E$1)</f>
+        <v>94535993</v>
+      </c>
+      <c r="F4" s="3">
+        <f>SUMIFS(ventas_precio,ventas_vendedor,$A4,ventas_region,F$1)</f>
+        <v>77744662</v>
+      </c>
+      <c r="G4" s="10">
+        <f t="shared" si="0"/>
+        <v>712437428</v>
+      </c>
+      <c r="H4" s="3">
+        <f>IF(tabla_vendedores[[#This Row],[total]]&gt;=condicion_premio,tabla_vendedores[[#This Row],[total]]*premio_v,tabla_vendedores[[#This Row],[total]]*premio_f)</f>
+        <v>178109357</v>
+      </c>
+      <c r="I4" s="10" t="str">
+        <f>IF(tabla_vendedores[[#This Row],[total]]&gt;=condicion_premio,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <f>SUMIFS(ventas_precio,ventas_vendedor,$A5,ventas_region,B$1)</f>
+        <v>75839132</v>
+      </c>
+      <c r="C5" s="3">
+        <f>SUMIFS(ventas_precio,ventas_vendedor,$A5,ventas_region,C$1)</f>
+        <v>88920515</v>
+      </c>
+      <c r="D5" s="3">
+        <f>SUMIFS(ventas_precio,ventas_vendedor,$A5,ventas_region,D$1)</f>
+        <v>271532147</v>
+      </c>
+      <c r="E5" s="3">
+        <f>SUMIFS(ventas_precio,ventas_vendedor,$A5,ventas_region,E$1)</f>
+        <v>193222871</v>
+      </c>
+      <c r="F5" s="3">
+        <f>SUMIFS(ventas_precio,ventas_vendedor,$A5,ventas_region,F$1)</f>
+        <v>131950052</v>
+      </c>
+      <c r="G5" s="10">
+        <f t="shared" si="0"/>
+        <v>761464717</v>
+      </c>
+      <c r="H5" s="3">
+        <f>IF(tabla_vendedores[[#This Row],[total]]&gt;=condicion_premio,tabla_vendedores[[#This Row],[total]]*premio_v,tabla_vendedores[[#This Row],[total]]*premio_f)</f>
+        <v>190366179.25</v>
+      </c>
+      <c r="I5" s="10" t="str">
+        <f>IF(tabla_vendedores[[#This Row],[total]]&gt;=condicion_premio,"SI","NO")</f>
+        <v>SI</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <f>SUMIFS(ventas_precio,ventas_vendedor,$A6,ventas_region,B$1)</f>
+        <v>16585017</v>
+      </c>
+      <c r="C6" s="3">
+        <f>SUMIFS(ventas_precio,ventas_vendedor,$A6,ventas_region,C$1)</f>
+        <v>275641384</v>
+      </c>
+      <c r="D6" s="3">
+        <f>SUMIFS(ventas_precio,ventas_vendedor,$A6,ventas_region,D$1)</f>
+        <v>50806730</v>
+      </c>
+      <c r="E6" s="3">
+        <f>SUMIFS(ventas_precio,ventas_vendedor,$A6,ventas_region,E$1)</f>
+        <v>48593995</v>
+      </c>
+      <c r="F6" s="3">
+        <f>SUMIFS(ventas_precio,ventas_vendedor,$A6,ventas_region,F$1)</f>
+        <v>167729464</v>
+      </c>
+      <c r="G6" s="10">
+        <f t="shared" si="0"/>
+        <v>559356590</v>
+      </c>
+      <c r="H6" s="3">
+        <f>IF(tabla_vendedores[[#This Row],[total]]&gt;=condicion_premio,tabla_vendedores[[#This Row],[total]]*premio_v,tabla_vendedores[[#This Row],[total]]*premio_f)</f>
+        <v>55935659</v>
+      </c>
+      <c r="I6" s="10" t="str">
+        <f>IF(tabla_vendedores[[#This Row],[total]]&gt;=condicion_premio,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <f>SUMIFS(ventas_precio,ventas_vendedor,$A7,ventas_region,B$1)</f>
+        <v>31378227</v>
+      </c>
+      <c r="C7" s="3">
+        <f>SUMIFS(ventas_precio,ventas_vendedor,$A7,ventas_region,C$1)</f>
+        <v>31867112</v>
+      </c>
+      <c r="D7" s="3">
+        <f>SUMIFS(ventas_precio,ventas_vendedor,$A7,ventas_region,D$1)</f>
+        <v>63246530</v>
+      </c>
+      <c r="E7" s="3">
+        <f>SUMIFS(ventas_precio,ventas_vendedor,$A7,ventas_region,E$1)</f>
+        <v>59797810</v>
+      </c>
+      <c r="F7" s="3">
+        <f>SUMIFS(ventas_precio,ventas_vendedor,$A7,ventas_region,F$1)</f>
+        <v>40433106</v>
+      </c>
+      <c r="G7" s="10">
+        <f t="shared" si="0"/>
+        <v>226722785</v>
+      </c>
+      <c r="H7" s="3">
+        <f>IF(tabla_vendedores[[#This Row],[total]]&gt;=condicion_premio,tabla_vendedores[[#This Row],[total]]*premio_v,tabla_vendedores[[#This Row],[total]]*premio_f)</f>
+        <v>22672278.5</v>
+      </c>
+      <c r="I7" s="10" t="str">
+        <f>IF(tabla_vendedores[[#This Row],[total]]&gt;=condicion_premio,"SI","NO")</f>
+        <v>NO</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="10">
+        <f>SUBTOTAL(109,tabla_vendedores[Antioquia])</f>
+        <v>703651234</v>
+      </c>
+      <c r="C8" s="10">
+        <f>SUBTOTAL(109,tabla_vendedores[Caribe])</f>
+        <v>655598107</v>
+      </c>
+      <c r="D8" s="10">
+        <f>SUBTOTAL(109,tabla_vendedores[Central])</f>
+        <v>576702901</v>
+      </c>
+      <c r="E8" s="10">
+        <f>SUBTOTAL(109,tabla_vendedores[Pacifico])</f>
+        <v>640574818</v>
+      </c>
+      <c r="F8" s="10">
+        <f>SUBTOTAL(109,tabla_vendedores[Santanderes])</f>
+        <v>677709121</v>
+      </c>
+      <c r="G8" s="10">
+        <f>SUBTOTAL(109,tabla_vendedores[total])</f>
+        <v>3254236181</v>
+      </c>
+      <c r="H8" s="10">
+        <f>SUBTOTAL(101,tabla_vendedores[COMISION])</f>
+        <v>106994886.85833333</v>
+      </c>
+      <c r="I8" s="12">
+        <f>COUNTIF(tabla_vendedores[OBJ],"SI")</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -5542,84 +6597,290 @@
       <c r="A181"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A7" xr:uid="{CD817869-3332-4BA1-9CA6-D67763739E2F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A7">
-      <sortCondition ref="A1:A7"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F705A57D-BFD6-4730-9DEF-9553A00DFEA3}">
+          <x14:formula1>
+            <xm:f>regiones!$A$2:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:F1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD42545-9B5A-464E-80B4-01A7EF327B8D}">
-  <dimension ref="A1:A181"/>
+  <dimension ref="A1:H182"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3">
+        <f>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,B$1)</f>
+        <v>186115319</v>
+      </c>
+      <c r="C2" s="3">
+        <f>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,C$1)</f>
+        <v>109144041</v>
+      </c>
+      <c r="D2" s="3">
+        <f>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,D$1)</f>
+        <v>94535993</v>
+      </c>
+      <c r="E2" s="3">
+        <f>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,E$1)</f>
+        <v>193222871</v>
+      </c>
+      <c r="F2" s="3">
+        <f>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,F$1)</f>
+        <v>48593995</v>
+      </c>
+      <c r="G2" s="3">
+        <f>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,G$1)</f>
+        <v>59797810</v>
+      </c>
+      <c r="H2" s="10">
+        <f>SUM(tabla_productos[[#This Row],[Capioli]:[Zuloaga]])</f>
+        <v>691410029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <f>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,B$1)</f>
+        <v>27153333</v>
+      </c>
+      <c r="C3" s="7">
+        <f>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,C$1)</f>
+        <v>232698504</v>
+      </c>
+      <c r="D3" s="3">
+        <f>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,D$1)</f>
+        <v>77744662</v>
+      </c>
+      <c r="E3" s="7">
+        <f>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,E$1)</f>
+        <v>131950052</v>
+      </c>
+      <c r="F3" s="3">
+        <f>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,F$1)</f>
+        <v>167729464</v>
+      </c>
+      <c r="G3" s="7">
+        <f>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,G$1)</f>
+        <v>40433106</v>
+      </c>
+      <c r="H3" s="10">
+        <f>SUM(tabla_productos[[#This Row],[Capioli]:[Zuloaga]])</f>
+        <v>677709121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <f>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,B$1)</f>
+        <v>76700859</v>
+      </c>
+      <c r="C4" s="7">
+        <f>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,C$1)</f>
+        <v>71950539</v>
+      </c>
+      <c r="D4" s="3">
+        <f>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,D$1)</f>
+        <v>110517698</v>
+      </c>
+      <c r="E4" s="7">
+        <f>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,E$1)</f>
+        <v>88920515</v>
+      </c>
+      <c r="F4" s="3">
+        <f>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,F$1)</f>
+        <v>275641384</v>
+      </c>
+      <c r="G4" s="7">
+        <f>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,G$1)</f>
+        <v>31867112</v>
+      </c>
+      <c r="H4" s="10">
+        <f>SUM(tabla_productos[[#This Row],[Capioli]:[Zuloaga]])</f>
+        <v>655598107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <f>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,B$1)</f>
+        <v>23001252</v>
+      </c>
+      <c r="C5" s="7">
+        <f>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,C$1)</f>
+        <v>169977929</v>
+      </c>
+      <c r="D5" s="3">
+        <f>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,D$1)</f>
+        <v>336034466</v>
+      </c>
+      <c r="E5" s="7">
+        <f>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,E$1)</f>
+        <v>75839132</v>
+      </c>
+      <c r="F5" s="3">
+        <f>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,F$1)</f>
+        <v>16585017</v>
+      </c>
+      <c r="G5" s="7">
+        <f>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,G$1)</f>
+        <v>31378227</v>
+      </c>
+      <c r="H5" s="10">
+        <f>SUM(tabla_productos[[#This Row],[Capioli]:[Zuloaga]])</f>
+        <v>652816023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <f>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,B$1)</f>
+        <v>44881356</v>
+      </c>
+      <c r="C6" s="7">
+        <f>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,C$1)</f>
+        <v>52631529</v>
+      </c>
+      <c r="D6" s="3">
+        <f>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,D$1)</f>
+        <v>93604609</v>
+      </c>
+      <c r="E6" s="7">
+        <f>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,E$1)</f>
+        <v>271532147</v>
+      </c>
+      <c r="F6" s="3">
+        <f>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,F$1)</f>
+        <v>50806730</v>
+      </c>
+      <c r="G6" s="7">
+        <f>SUMIFS(ventas_precio,ventas_producto,tabla_productos[[#This Row],[Producto]],ventas_vendedor,G$1)</f>
+        <v>63246530</v>
+      </c>
+      <c r="H6" s="10">
+        <f>SUM(tabla_productos[[#This Row],[Capioli]:[Zuloaga]])</f>
+        <v>576702901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="9">
+        <f>SUBTOTAL(109,tabla_productos[Capioli])</f>
+        <v>357852119</v>
+      </c>
+      <c r="C7" s="8">
+        <f>SUBTOTAL(109,tabla_productos[Cardenas])</f>
+        <v>636402542</v>
+      </c>
+      <c r="D7" s="9">
+        <f>SUBTOTAL(109,tabla_productos[Cardenas])</f>
+        <v>636402542</v>
+      </c>
+      <c r="E7" s="8">
+        <f>SUBTOTAL(109,tabla_productos[Juarez])</f>
+        <v>712437428</v>
+      </c>
+      <c r="F7" s="9">
+        <f>SUBTOTAL(109,tabla_productos[Juarez])</f>
+        <v>712437428</v>
+      </c>
+      <c r="G7" s="8">
+        <f>SUBTOTAL(109,tabla_productos[Lujan])</f>
+        <v>761464717</v>
+      </c>
+      <c r="H7" s="9">
+        <f>SUBTOTAL(109,tabla_productos[Total])</f>
+        <v>3254236181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -6117,86 +7378,296 @@
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181"/>
     </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A6" xr:uid="{BBD42545-9B5A-464E-80B4-01A7EF327B8D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A181">
-    <sortCondition ref="A2:A181"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A182">
+    <sortCondition ref="A2:A182"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A19212AC-1343-4D6D-9910-5CA1FF214215}">
+          <x14:formula1>
+            <xm:f>vendedores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:G1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49FA5DA4-F2E8-4268-9AB4-039274B82003}">
-  <dimension ref="A1:A181"/>
+  <dimension ref="A1:H182"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="F2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3">
+        <f>SUMIFS(ventas_precio,ventas_region,tabla_regiones[[#This Row],[Region]],ventas_vendedor,B$1)</f>
+        <v>73836463</v>
+      </c>
+      <c r="C2" s="3">
+        <f>SUMIFS(ventas_precio,ventas_region,tabla_regiones[[#This Row],[Region]],ventas_vendedor,C$1)</f>
+        <v>169977929</v>
+      </c>
+      <c r="D2" s="3">
+        <f>SUMIFS(ventas_precio,ventas_region,tabla_regiones[[#This Row],[Region]],ventas_vendedor,D$1)</f>
+        <v>336034466</v>
+      </c>
+      <c r="E2" s="3">
+        <f>SUMIFS(ventas_precio,ventas_region,tabla_regiones[[#This Row],[Region]],ventas_vendedor,E$1)</f>
+        <v>75839132</v>
+      </c>
+      <c r="F2" s="3">
+        <f>SUMIFS(ventas_precio,ventas_region,tabla_regiones[[#This Row],[Region]],ventas_vendedor,F$1)</f>
+        <v>16585017</v>
+      </c>
+      <c r="G2" s="3">
+        <f>SUMIFS(ventas_precio,ventas_region,tabla_regiones[[#This Row],[Region]],ventas_vendedor,G$1)</f>
+        <v>31378227</v>
+      </c>
+      <c r="H2" s="7">
+        <f>SUM(tabla_regiones[[#This Row],[Capioli]:[Zuloaga]])</f>
+        <v>703651234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <f>SUMIFS(ventas_precio,ventas_region,tabla_regiones[[#This Row],[Region]],ventas_vendedor,B$1)</f>
+        <v>76700859</v>
+      </c>
+      <c r="C3" s="7">
+        <f>SUMIFS(ventas_precio,ventas_region,tabla_regiones[[#This Row],[Region]],ventas_vendedor,C$1)</f>
+        <v>71950539</v>
+      </c>
+      <c r="D3" s="3">
+        <f>SUMIFS(ventas_precio,ventas_region,tabla_regiones[[#This Row],[Region]],ventas_vendedor,D$1)</f>
+        <v>110517698</v>
+      </c>
+      <c r="E3" s="7">
+        <f>SUMIFS(ventas_precio,ventas_region,tabla_regiones[[#This Row],[Region]],ventas_vendedor,E$1)</f>
+        <v>88920515</v>
+      </c>
+      <c r="F3" s="3">
+        <f>SUMIFS(ventas_precio,ventas_region,tabla_regiones[[#This Row],[Region]],ventas_vendedor,F$1)</f>
+        <v>275641384</v>
+      </c>
+      <c r="G3" s="7">
+        <f>SUMIFS(ventas_precio,ventas_region,tabla_regiones[[#This Row],[Region]],ventas_vendedor,G$1)</f>
+        <v>31867112</v>
+      </c>
+      <c r="H3" s="7">
+        <f>SUM(tabla_regiones[[#This Row],[Capioli]:[Zuloaga]])</f>
+        <v>655598107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <f>SUMIFS(ventas_precio,ventas_region,tabla_regiones[[#This Row],[Region]],ventas_vendedor,B$1)</f>
+        <v>44881356</v>
+      </c>
+      <c r="C4" s="7">
+        <f>SUMIFS(ventas_precio,ventas_region,tabla_regiones[[#This Row],[Region]],ventas_vendedor,C$1)</f>
+        <v>52631529</v>
+      </c>
+      <c r="D4" s="3">
+        <f>SUMIFS(ventas_precio,ventas_region,tabla_regiones[[#This Row],[Region]],ventas_vendedor,D$1)</f>
+        <v>93604609</v>
+      </c>
+      <c r="E4" s="7">
+        <f>SUMIFS(ventas_precio,ventas_region,tabla_regiones[[#This Row],[Region]],ventas_vendedor,E$1)</f>
+        <v>271532147</v>
+      </c>
+      <c r="F4" s="3">
+        <f>SUMIFS(ventas_precio,ventas_region,tabla_regiones[[#This Row],[Region]],ventas_vendedor,F$1)</f>
+        <v>50806730</v>
+      </c>
+      <c r="G4" s="7">
+        <f>SUMIFS(ventas_precio,ventas_region,tabla_regiones[[#This Row],[Region]],ventas_vendedor,G$1)</f>
+        <v>63246530</v>
+      </c>
+      <c r="H4" s="7">
+        <f>SUM(tabla_regiones[[#This Row],[Capioli]:[Zuloaga]])</f>
+        <v>576702901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <f>SUMIFS(ventas_precio,ventas_region,tabla_regiones[[#This Row],[Region]],ventas_vendedor,B$1)</f>
+        <v>135280108</v>
+      </c>
+      <c r="C5" s="7">
+        <f>SUMIFS(ventas_precio,ventas_region,tabla_regiones[[#This Row],[Region]],ventas_vendedor,C$1)</f>
+        <v>109144041</v>
+      </c>
+      <c r="D5" s="3">
+        <f>SUMIFS(ventas_precio,ventas_region,tabla_regiones[[#This Row],[Region]],ventas_vendedor,D$1)</f>
+        <v>94535993</v>
+      </c>
+      <c r="E5" s="7">
+        <f>SUMIFS(ventas_precio,ventas_region,tabla_regiones[[#This Row],[Region]],ventas_vendedor,E$1)</f>
+        <v>193222871</v>
+      </c>
+      <c r="F5" s="3">
+        <f>SUMIFS(ventas_precio,ventas_region,tabla_regiones[[#This Row],[Region]],ventas_vendedor,F$1)</f>
+        <v>48593995</v>
+      </c>
+      <c r="G5" s="7">
+        <f>SUMIFS(ventas_precio,ventas_region,tabla_regiones[[#This Row],[Region]],ventas_vendedor,G$1)</f>
+        <v>59797810</v>
+      </c>
+      <c r="H5" s="7">
+        <f>SUM(tabla_regiones[[#This Row],[Capioli]:[Zuloaga]])</f>
+        <v>640574818</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <f>SUMIFS(ventas_precio,ventas_region,tabla_regiones[[#This Row],[Region]],ventas_vendedor,B$1)</f>
+        <v>27153333</v>
+      </c>
+      <c r="C6" s="7">
+        <f>SUMIFS(ventas_precio,ventas_region,tabla_regiones[[#This Row],[Region]],ventas_vendedor,C$1)</f>
+        <v>232698504</v>
+      </c>
+      <c r="D6" s="3">
+        <f>SUMIFS(ventas_precio,ventas_region,tabla_regiones[[#This Row],[Region]],ventas_vendedor,D$1)</f>
+        <v>77744662</v>
+      </c>
+      <c r="E6" s="7">
+        <f>SUMIFS(ventas_precio,ventas_region,tabla_regiones[[#This Row],[Region]],ventas_vendedor,E$1)</f>
+        <v>131950052</v>
+      </c>
+      <c r="F6" s="3">
+        <f>SUMIFS(ventas_precio,ventas_region,tabla_regiones[[#This Row],[Region]],ventas_vendedor,F$1)</f>
+        <v>167729464</v>
+      </c>
+      <c r="G6" s="7">
+        <f>SUMIFS(ventas_precio,ventas_region,tabla_regiones[[#This Row],[Region]],ventas_vendedor,G$1)</f>
+        <v>40433106</v>
+      </c>
+      <c r="H6" s="7">
+        <f>SUM(tabla_regiones[[#This Row],[Capioli]:[Zuloaga]])</f>
+        <v>677709121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="7">
+        <f>SUBTOTAL(109,tabla_regiones[Capioli])</f>
+        <v>357852119</v>
+      </c>
+      <c r="C7" s="7">
+        <f>SUBTOTAL(109,tabla_regiones[Cardenas])</f>
+        <v>636402542</v>
+      </c>
+      <c r="D7" s="7">
+        <f>SUBTOTAL(109,tabla_regiones[Juarez])</f>
+        <v>712437428</v>
+      </c>
+      <c r="E7" s="7">
+        <f>SUBTOTAL(109,tabla_regiones[Lujan])</f>
+        <v>761464717</v>
+      </c>
+      <c r="F7" s="7">
+        <f>SUBTOTAL(109,tabla_regiones[Sanchez])</f>
+        <v>559356590</v>
+      </c>
+      <c r="G7" s="7">
+        <f>SUBTOTAL(109,tabla_regiones[Zuloaga])</f>
+        <v>226722785</v>
+      </c>
+      <c r="H7" s="7">
+        <f>SUBTOTAL(109,tabla_regiones[Total])</f>
+        <v>3254236181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -6694,12 +8165,25 @@
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181"/>
     </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A6" xr:uid="{49FA5DA4-F2E8-4268-9AB4-039274B82003}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A6">
-      <sortCondition ref="A1:A6"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BE1901EA-C98C-4010-A4C4-32D65F8114C7}">
+          <x14:formula1>
+            <xm:f>vendedores!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:G1</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>